--- a/稳态计算表_.xlsx
+++ b/稳态计算表_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\本科课程\船舶设计原理\大作业\船舶设计原理上学期部分\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB11B14-6182-4992-A9F8-AA5D3CD752D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC3826E-2F96-4D1E-A3CC-08002AEDE9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="满载出港" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="121">
   <si>
     <t>项目</t>
   </si>
@@ -370,6 +370,30 @@
   </si>
   <si>
     <t>——</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>液体密度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>形心位置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重心位置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCG</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCG</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(m)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +401,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,8 +494,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +512,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,9 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,6 +678,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,10 +705,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -665,31 +723,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,63 +1026,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.36328125" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="17" customWidth="1"/>
-    <col min="7" max="8" width="9" style="17"/>
+    <col min="3" max="3" width="11.54296875" style="16" customWidth="1"/>
+    <col min="7" max="10" width="9" style="16"/>
+    <col min="11" max="11" width="9.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="I1" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="32"/>
+      <c r="K1" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1032,30 +1115,40 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1076,9 +1169,12 @@
       <c r="H5" s="14">
         <v>11.33</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1099,9 +1195,12 @@
       <c r="H6" s="14">
         <v>10.94</v>
       </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1122,9 +1221,12 @@
       <c r="H7" s="14">
         <v>10.9</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1145,9 +1247,12 @@
       <c r="H8" s="14">
         <v>10.9</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1168,9 +1273,12 @@
       <c r="H9" s="14">
         <v>10.9</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1191,9 +1299,12 @@
       <c r="H10" s="14">
         <v>10.9</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -1214,29 +1325,37 @@
       <c r="H11" s="14">
         <v>11.34</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="14">
+        <v>323.54000000000002</v>
+      </c>
       <c r="D13" s="9">
         <v>32.4</v>
       </c>
@@ -1246,24 +1365,29 @@
       <c r="F13" s="10">
         <v>40.200000000000003</v>
       </c>
-      <c r="G13" s="20">
-        <v>80.5</v>
-      </c>
-      <c r="H13" s="20">
-        <v>0.81</v>
-      </c>
-      <c r="I13" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="17">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1.02</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="1">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="14">
+        <v>323.54000000000002</v>
+      </c>
       <c r="D14" s="9">
         <v>40</v>
       </c>
@@ -1273,24 +1397,29 @@
       <c r="F14" s="10">
         <v>49.6</v>
       </c>
-      <c r="G14" s="20">
-        <v>80.5</v>
-      </c>
-      <c r="H14" s="20">
-        <v>1.04</v>
-      </c>
-      <c r="I14" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="17">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1.02</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="1">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14">
+        <v>538.20000000000005</v>
+      </c>
       <c r="D15" s="9">
         <v>20</v>
       </c>
@@ -1300,24 +1429,29 @@
       <c r="F15" s="10">
         <v>34.1</v>
       </c>
-      <c r="G15" s="20">
-        <v>3.48</v>
-      </c>
-      <c r="H15" s="20">
-        <v>0.74</v>
-      </c>
-      <c r="I15" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="38">
+        <v>64</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="1">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14">
+        <v>538.20000000000005</v>
+      </c>
       <c r="D16" s="9">
         <v>20</v>
       </c>
@@ -1327,24 +1461,29 @@
       <c r="F16" s="10">
         <v>34.1</v>
       </c>
-      <c r="G16" s="20">
-        <v>3.48</v>
-      </c>
-      <c r="H16" s="20">
-        <v>0.74</v>
-      </c>
-      <c r="I16" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="38">
+        <v>64</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="1">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="14">
+        <v>557.98</v>
+      </c>
       <c r="D17" s="9">
         <v>32.4</v>
       </c>
@@ -1354,24 +1493,29 @@
       <c r="F17" s="10">
         <v>40.200000000000003</v>
       </c>
-      <c r="G17" s="20">
-        <v>80.5</v>
-      </c>
-      <c r="H17" s="20">
-        <v>0.81</v>
-      </c>
-      <c r="I17" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="14">
+        <v>89.5</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="1">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14">
+        <v>557.98</v>
+      </c>
       <c r="D18" s="9">
         <v>40</v>
       </c>
@@ -1381,24 +1525,29 @@
       <c r="F18" s="10">
         <v>49.6</v>
       </c>
-      <c r="G18" s="20">
-        <v>80.5</v>
-      </c>
-      <c r="H18" s="20">
-        <v>1.04</v>
-      </c>
-      <c r="I18" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="14">
+        <v>89.5</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="1">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="14">
+        <v>560.72</v>
+      </c>
       <c r="D19" s="9">
         <v>20</v>
       </c>
@@ -1408,24 +1557,29 @@
       <c r="F19" s="10">
         <v>34.1</v>
       </c>
-      <c r="G19" s="20">
-        <v>3.48</v>
-      </c>
-      <c r="H19" s="20">
-        <v>0.74</v>
-      </c>
-      <c r="I19" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="14">
+        <v>115</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="1">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14">
+        <v>560.72</v>
+      </c>
       <c r="D20" s="9">
         <v>20</v>
       </c>
@@ -1435,24 +1589,29 @@
       <c r="F20" s="10">
         <v>34.1</v>
       </c>
-      <c r="G20" s="20">
-        <v>3.48</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0.74</v>
-      </c>
-      <c r="I20" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="14">
+        <v>115</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="1">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="14">
+        <v>560.57000000000005</v>
+      </c>
       <c r="D21" s="9">
         <v>32.4</v>
       </c>
@@ -1462,24 +1621,29 @@
       <c r="F21" s="10">
         <v>40.200000000000003</v>
       </c>
-      <c r="G21" s="20">
-        <v>80.5</v>
-      </c>
-      <c r="H21" s="20">
-        <v>0.81</v>
-      </c>
-      <c r="I21" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="14">
+        <v>140.5</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="1">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="14">
+        <v>560.57000000000005</v>
+      </c>
       <c r="D22" s="9">
         <v>40</v>
       </c>
@@ -1489,24 +1653,29 @@
       <c r="F22" s="10">
         <v>49.6</v>
       </c>
-      <c r="G22" s="20">
-        <v>80.5</v>
-      </c>
-      <c r="H22" s="20">
-        <v>1.04</v>
-      </c>
-      <c r="I22" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="14">
+        <v>140.5</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="1">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="14">
+        <v>560.57000000000005</v>
+      </c>
       <c r="D23" s="9">
         <v>20</v>
       </c>
@@ -1516,24 +1685,29 @@
       <c r="F23" s="10">
         <v>34.1</v>
       </c>
-      <c r="G23" s="20">
-        <v>3.48</v>
-      </c>
-      <c r="H23" s="20">
-        <v>0.74</v>
-      </c>
-      <c r="I23" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="14">
+        <v>166</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="1">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>560.57000000000005</v>
+      </c>
       <c r="D24" s="9">
         <v>20</v>
       </c>
@@ -1543,24 +1717,29 @@
       <c r="F24" s="10">
         <v>34.1</v>
       </c>
-      <c r="G24" s="20">
-        <v>3.48</v>
-      </c>
-      <c r="H24" s="20">
-        <v>0.74</v>
-      </c>
-      <c r="I24" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="14">
+        <v>166</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="1">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="14">
+        <v>428.97</v>
+      </c>
       <c r="D25" s="9">
         <v>20</v>
       </c>
@@ -1570,24 +1749,29 @@
       <c r="F25" s="10">
         <v>34.1</v>
       </c>
-      <c r="G25" s="20">
-        <v>3.48</v>
-      </c>
-      <c r="H25" s="20">
-        <v>0.74</v>
-      </c>
-      <c r="I25" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="14">
+        <v>196.7</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="1">
+        <v>15619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="14">
+        <v>428.97</v>
+      </c>
       <c r="D26" s="9">
         <v>20</v>
       </c>
@@ -1597,17 +1781,20 @@
       <c r="F26" s="10">
         <v>34.1</v>
       </c>
-      <c r="G26" s="20">
-        <v>3.48</v>
-      </c>
-      <c r="H26" s="20">
-        <v>0.74</v>
-      </c>
-      <c r="I26" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="14">
+        <v>196.7</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="1">
+        <v>15619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -1632,11 +1819,14 @@
       <c r="H27" s="14">
         <v>9.73</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="10">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1661,11 +1851,14 @@
       <c r="H28" s="14">
         <v>9.73</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="10">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -1690,11 +1883,14 @@
       <c r="H29" s="14">
         <v>9.73</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1719,11 +1915,14 @@
       <c r="H30" s="14">
         <v>9.73</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -1748,11 +1947,14 @@
       <c r="H31" s="14">
         <v>9.73</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="10">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -1777,11 +1979,14 @@
       <c r="H32" s="14">
         <v>9.73</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="10">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1806,11 +2011,14 @@
       <c r="H33" s="14">
         <v>9.73</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -1835,11 +2043,14 @@
       <c r="H34" s="14">
         <v>9.73</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -1864,11 +2075,14 @@
       <c r="H35" s="14">
         <v>9.73</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="10">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -1893,11 +2107,14 @@
       <c r="H36" s="14">
         <v>9.73</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="10">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -1922,11 +2139,14 @@
       <c r="H37" s="14">
         <v>9.73</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -1951,11 +2171,14 @@
       <c r="H38" s="14">
         <v>9.73</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
@@ -1980,11 +2203,14 @@
       <c r="H39" s="14">
         <v>13.42</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -2009,11 +2235,14 @@
       <c r="H40" s="14">
         <v>13.42</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
@@ -2038,11 +2267,14 @@
       <c r="H41" s="14">
         <v>18.559999999999999</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
@@ -2067,47 +2299,56 @@
       <c r="H42" s="14">
         <v>18.559999999999999</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="16"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="11">
         <f>SUM(F13:F42)</f>
         <v>1152.6000000000001</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="11">
-        <f>SUM(I13:I42)</f>
-        <v>2808</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="11">
+        <f>SUM(L13:L42)</f>
+        <v>243996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="21" t="s">
         <v>113</v>
       </c>
       <c r="C45" s="14">
@@ -2122,9 +2363,12 @@
       <c r="H45" s="14">
         <v>14.51</v>
       </c>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
@@ -2149,11 +2393,14 @@
       <c r="H46" s="14">
         <v>16.86</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
@@ -2178,16 +2425,19 @@
       <c r="H47" s="14">
         <v>16.86</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="16"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="11">
@@ -2196,32 +2446,40 @@
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
-      <c r="I48" s="11">
-        <f t="shared" ref="I48" si="0">SUM(I46:I47)</f>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="11">
+        <f t="shared" ref="L48" si="0">SUM(L46:L47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="14">
+        <v>65</v>
+      </c>
       <c r="D50" s="1">
         <v>98</v>
       </c>
@@ -2231,24 +2489,28 @@
       <c r="F50" s="10">
         <v>14.4</v>
       </c>
-      <c r="G50" s="20">
-        <v>39.549999999999997</v>
-      </c>
-      <c r="H50" s="20">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="I50" s="10">
+      <c r="G50" s="39">
+        <v>25.37</v>
+      </c>
+      <c r="H50" s="39">
+        <v>3.86</v>
+      </c>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="L50" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="14">
+        <v>65</v>
+      </c>
       <c r="D51" s="1">
         <v>98</v>
       </c>
@@ -2258,68 +2520,112 @@
       <c r="F51" s="10">
         <v>11.9</v>
       </c>
-      <c r="G51" s="20">
-        <v>39.549999999999997</v>
-      </c>
-      <c r="H51" s="20">
-        <v>2.63</v>
-      </c>
-      <c r="I51" s="10">
+      <c r="G51" s="39">
+        <v>25.37</v>
+      </c>
+      <c r="H51" s="39">
+        <v>3.86</v>
+      </c>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="L51" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="17">
+        <v>30</v>
+      </c>
+      <c r="D52" s="40">
+        <v>75</v>
+      </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="10"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="39">
+        <v>20.74</v>
+      </c>
+      <c r="H52" s="39">
+        <v>16.96</v>
+      </c>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="10"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="C53" s="17">
+        <v>30</v>
+      </c>
+      <c r="D53" s="40">
+        <v>75</v>
+      </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="10"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>81</v>
+      <c r="G53" s="39">
+        <v>24.69</v>
+      </c>
+      <c r="H53" s="39">
+        <v>16.96</v>
+      </c>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C54" s="14">
+        <v>1040.9100000000001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>98</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="F54" s="10">
+        <v>74.8</v>
+      </c>
+      <c r="G54" s="39">
+        <v>154</v>
+      </c>
+      <c r="H54" s="39">
+        <v>18.02</v>
+      </c>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="18"/>
+      <c r="C55" s="39">
+        <v>1040.9100000000001</v>
+      </c>
       <c r="D55" s="1">
         <v>98</v>
       </c>
@@ -2329,24 +2635,29 @@
       <c r="F55" s="10">
         <v>74.8</v>
       </c>
-      <c r="G55" s="20">
-        <v>59.15</v>
-      </c>
-      <c r="H55" s="20">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="I55" s="10">
+      <c r="G55" s="39">
+        <v>154</v>
+      </c>
+      <c r="H55" s="39">
+        <v>18.02</v>
+      </c>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="14">
+        <v>1041.9100000000001</v>
+      </c>
       <c r="D56" s="1">
         <v>98</v>
       </c>
@@ -2354,26 +2665,31 @@
         <v>0.89</v>
       </c>
       <c r="F56" s="10">
-        <v>74.8</v>
-      </c>
-      <c r="G56" s="20">
-        <v>59.15</v>
-      </c>
-      <c r="H56" s="20">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="I56" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>156.4</v>
+      </c>
+      <c r="G56" s="39">
+        <v>102.25</v>
+      </c>
+      <c r="H56" s="39">
+        <v>18.02</v>
+      </c>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="14">
+        <v>1041.9100000000001</v>
+      </c>
       <c r="D57" s="1">
         <v>98</v>
       </c>
@@ -2381,26 +2697,31 @@
         <v>0.89</v>
       </c>
       <c r="F57" s="10">
-        <v>156.4</v>
-      </c>
-      <c r="G57" s="20">
-        <v>46.77</v>
-      </c>
-      <c r="H57" s="20">
-        <v>2.39</v>
-      </c>
-      <c r="I57" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136.6</v>
+      </c>
+      <c r="G57" s="39">
+        <v>102.25</v>
+      </c>
+      <c r="H57" s="39">
+        <v>18.02</v>
+      </c>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="14"/>
+        <v>89</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="39">
+        <v>976.75</v>
+      </c>
       <c r="D58" s="1">
         <v>98</v>
       </c>
@@ -2408,26 +2729,31 @@
         <v>0.89</v>
       </c>
       <c r="F58" s="10">
-        <v>136.6</v>
-      </c>
-      <c r="G58" s="20">
-        <v>47.48</v>
-      </c>
-      <c r="H58" s="20">
-        <v>2.12</v>
-      </c>
-      <c r="I58" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53.4</v>
+      </c>
+      <c r="G58" s="39">
+        <v>52.03</v>
+      </c>
+      <c r="H58" s="39">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="10">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="39">
+        <v>976.75</v>
+      </c>
       <c r="D59" s="1">
         <v>98</v>
       </c>
@@ -2437,24 +2763,29 @@
       <c r="F59" s="10">
         <v>53.4</v>
       </c>
-      <c r="G59" s="20">
-        <v>22.75</v>
-      </c>
-      <c r="H59" s="20">
-        <v>0.49</v>
-      </c>
-      <c r="I59" s="10">
+      <c r="G59" s="39">
+        <v>52.03</v>
+      </c>
+      <c r="H59" s="39">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="10">
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="C60" s="14">
+        <v>332.56</v>
+      </c>
       <c r="D60" s="1">
         <v>98</v>
       </c>
@@ -2464,24 +2795,29 @@
       <c r="F60" s="10">
         <v>53.4</v>
       </c>
-      <c r="G60" s="20">
-        <v>22.75</v>
-      </c>
-      <c r="H60" s="20">
-        <v>0.49</v>
-      </c>
-      <c r="I60" s="10">
+      <c r="G60" s="39">
+        <v>22.66</v>
+      </c>
+      <c r="H60" s="39">
+        <v>14.47</v>
+      </c>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="10">
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="14"/>
+      <c r="C61" s="14">
+        <v>332.56</v>
+      </c>
       <c r="D61" s="1">
         <v>98</v>
       </c>
@@ -2491,84 +2827,98 @@
       <c r="F61" s="10">
         <v>53.4</v>
       </c>
-      <c r="G61" s="20">
-        <v>22.75</v>
-      </c>
-      <c r="H61" s="20">
-        <v>0.49</v>
-      </c>
-      <c r="I61" s="10">
+      <c r="G61" s="39">
+        <v>22.66</v>
+      </c>
+      <c r="H61" s="39">
+        <v>14.47</v>
+      </c>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="10">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="1">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="11">
+        <f>SUM(F50:F61)</f>
+        <v>682.49999999999989</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="11">
+        <f>SUM(L50:L61)</f>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="26"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="14">
+        <v>15.79</v>
+      </c>
+      <c r="D64" s="1">
+        <v>50</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F64" s="22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G64" s="1">
+        <v>20.27</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="F62" s="10">
-        <v>53.4</v>
-      </c>
-      <c r="G62" s="20">
-        <v>22.75</v>
-      </c>
-      <c r="H62" s="20">
-        <v>0.49</v>
-      </c>
-      <c r="I62" s="10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="11">
-        <f>SUM(F50:F62)</f>
-        <v>682.49999999999989</v>
-      </c>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="11">
-        <f>SUM(I50:I62)</f>
-        <v>810</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="36"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C65" s="14">
-        <v>15.79</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="D65" s="1">
         <v>50</v>
@@ -2576,89 +2926,101 @@
       <c r="E65" s="1">
         <v>0.9</v>
       </c>
-      <c r="F65" s="37">
-        <v>8.3000000000000007</v>
+      <c r="F65" s="22">
+        <v>7.2</v>
       </c>
       <c r="G65" s="1">
-        <v>20.27</v>
+        <v>24.83</v>
       </c>
       <c r="H65" s="1">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I65" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="14">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="D66" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="11">
+        <f>SUM(F64:F65)</f>
+        <v>15.5</v>
+      </c>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="11">
+        <f t="shared" ref="L66" si="1">SUM(L64:L65)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="14">
+        <v>26.9</v>
+      </c>
+      <c r="D68" s="1">
         <v>50</v>
       </c>
-      <c r="E66" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F66" s="37">
-        <v>7.2</v>
-      </c>
-      <c r="G66" s="1">
-        <v>24.83</v>
-      </c>
-      <c r="H66" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I66" s="10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="11">
-        <f>SUM(F65:F66)</f>
-        <v>15.5</v>
-      </c>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="11">
-        <f t="shared" ref="I67" si="1">SUM(I65:I66)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>100</v>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="G68" s="14">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H68" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C69" s="14">
-        <v>26.9</v>
+        <v>15.79</v>
       </c>
       <c r="D69" s="1">
         <v>50</v>
@@ -2667,266 +3029,272 @@
         <v>1</v>
       </c>
       <c r="F69" s="10">
-        <v>7.7</v>
+        <v>3.8</v>
       </c>
       <c r="G69" s="14">
-        <v>18.899999999999999</v>
+        <v>24.83</v>
       </c>
       <c r="H69" s="14">
-        <v>0.91</v>
-      </c>
-      <c r="I69" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="14">
-        <v>15.79</v>
-      </c>
-      <c r="D70" s="1">
-        <v>50</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="G70" s="14">
-        <v>24.83</v>
-      </c>
-      <c r="H70" s="14">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="11">
-        <f>SUM(F69:F70)</f>
+      <c r="B70" s="8"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="11">
+        <f>SUM(F68:F69)</f>
         <v>11.5</v>
       </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="11">
-        <f>SUM(I69:I70)</f>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="11">
+        <f>SUM(L68:L69)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="23">
+        <v>6.76</v>
+      </c>
+      <c r="G72" s="23">
+        <v>13.05</v>
+      </c>
+      <c r="H72" s="23">
+        <v>23.14</v>
+      </c>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>114</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="38">
-        <v>6.76</v>
-      </c>
-      <c r="G73" s="38">
-        <v>13.05</v>
-      </c>
-      <c r="H73" s="38">
+      <c r="F73" s="23">
+        <v>93.27</v>
+      </c>
+      <c r="G73" s="23">
+        <v>18.193999999999999</v>
+      </c>
+      <c r="H73" s="23">
         <v>23.14</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="23" t="s">
         <v>114</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="38">
-        <v>93.27</v>
-      </c>
-      <c r="G74" s="38">
-        <v>18.193999999999999</v>
-      </c>
-      <c r="H74" s="38">
-        <v>23.14</v>
-      </c>
-      <c r="I74" s="10">
+      <c r="F74" s="23">
+        <v>1.26</v>
+      </c>
+      <c r="G74" s="23">
+        <v>16.25</v>
+      </c>
+      <c r="H74" s="23">
+        <v>26.2</v>
+      </c>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>114</v>
-      </c>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="38">
-        <v>1.26</v>
-      </c>
-      <c r="G75" s="38">
-        <v>16.25</v>
-      </c>
-      <c r="H75" s="38">
-        <v>26.2</v>
-      </c>
-      <c r="I75" s="10">
+      <c r="F75" s="11">
+        <f>SUM(F72:F74)</f>
+        <v>101.29</v>
+      </c>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="11">
+        <f t="shared" ref="L75" si="2">SUM(L72:L74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>70</v>
-      </c>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
       <c r="B76" s="8"/>
-      <c r="C76" s="16"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="11">
-        <f>SUM(F73:F75)</f>
-        <v>101.29</v>
-      </c>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="11">
-        <f t="shared" ref="I76" si="2">SUM(I73:I75)</f>
+      <c r="F76" s="11"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="11"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="11">
+        <v>3478.4</v>
+      </c>
+      <c r="G77" s="20">
+        <v>39.65</v>
+      </c>
+      <c r="H77" s="20">
+        <v>6.01</v>
+      </c>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="11"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B78" s="8"/>
-      <c r="C78" s="16"/>
+      <c r="C78" s="15"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="11">
-        <v>3478.4</v>
-      </c>
-      <c r="G78" s="21">
-        <v>39.65</v>
-      </c>
-      <c r="H78" s="21">
-        <v>6.01</v>
-      </c>
-      <c r="I78" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1307.0999999999999</v>
+      </c>
+      <c r="G78" s="20">
+        <v>40.24</v>
+      </c>
+      <c r="H78" s="20">
+        <v>1.92</v>
+      </c>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="11">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B79" s="8"/>
-      <c r="C79" s="16"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="11">
-        <v>1307.0999999999999</v>
-      </c>
-      <c r="G79" s="21">
-        <v>40.24</v>
-      </c>
-      <c r="H79" s="21">
-        <v>1.92</v>
-      </c>
-      <c r="I79" s="11">
+        <f>SUM(F77+F78)</f>
+        <v>4785.5</v>
+      </c>
+      <c r="G79" s="20">
+        <v>39.81</v>
+      </c>
+      <c r="H79" s="20">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="11">
+        <f t="shared" ref="L79" si="3">SUM(L77+L78)</f>
         <v>1066</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="11">
-        <f>SUM(F78+F79)</f>
-        <v>4785.5</v>
-      </c>
-      <c r="G80" s="21">
-        <v>39.81</v>
-      </c>
-      <c r="H80" s="21">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="I80" s="11">
-        <f t="shared" ref="I80" si="3">SUM(I78+I79)</f>
-        <v>1066</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A72:I72"/>
+  <mergeCells count="17">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A71:L71"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2945,46 +3313,46 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3014,17 +3382,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3132,17 +3500,17 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3974,17 +4342,17 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -4060,17 +4428,17 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -4406,17 +4774,17 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -4492,17 +4860,17 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -4578,17 +4946,17 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -4789,46 +5157,46 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -4858,17 +5226,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -4976,17 +5344,17 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -5818,17 +6186,17 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -5904,17 +6272,17 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -6250,17 +6618,17 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -6336,17 +6704,17 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -6422,17 +6790,17 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -6633,46 +7001,46 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -6702,17 +7070,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -6820,17 +7188,17 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -7662,17 +8030,17 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -7748,17 +8116,17 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -8094,17 +8462,17 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -8180,17 +8548,17 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -8266,17 +8634,17 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">

--- a/稳态计算表_.xlsx
+++ b/稳态计算表_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\本科课程\船舶设计原理\大作业\船舶设计原理上学期部分\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC3826E-2F96-4D1E-A3CC-08002AEDE9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108AC11A-46A9-47FB-BEF8-3CA7FBE0ED88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="满载出港" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="124">
   <si>
     <t>项目</t>
   </si>
@@ -373,10 +373,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>液体密度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>形心位置</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -394,6 +390,22 @@
   </si>
   <si>
     <t>(m)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>压载舱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.1 燃油沉淀舱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.2 燃油沉淀舱</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,9 +482,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -495,14 +513,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,13 +531,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,64 +692,103 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -723,40 +800,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,2275 +1148,2729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="16" customWidth="1"/>
-    <col min="7" max="10" width="9" style="16"/>
-    <col min="11" max="11" width="9.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" style="21" customWidth="1"/>
+    <col min="2" max="3" width="11.54296875" style="31" customWidth="1"/>
+    <col min="4" max="10" width="9" style="31"/>
+    <col min="11" max="11" width="15.7265625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="44" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="43" t="s">
+      <c r="J2" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="43"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="22">
+        <v>10024.379999999999</v>
+      </c>
+      <c r="D5" s="22">
+        <v>99.5</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F5" s="22">
+        <f>C5*D5/100*E5</f>
+        <v>7919.5609313999994</v>
+      </c>
+      <c r="G5" s="22">
+        <v>190.76</v>
+      </c>
+      <c r="H5" s="22">
+        <v>11.33</v>
+      </c>
+      <c r="I5" s="22">
+        <f>G5</f>
+        <v>190.76</v>
+      </c>
+      <c r="J5" s="22">
+        <f>H5</f>
+        <v>11.33</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="22">
+        <v>13085.42</v>
+      </c>
+      <c r="D6" s="22">
+        <v>99.5</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:F10" si="0">C6*D6/100*E6</f>
+        <v>10337.874362600001</v>
+      </c>
+      <c r="G6" s="22">
+        <v>166.49</v>
+      </c>
+      <c r="H6" s="22">
+        <v>10.94</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" ref="I6:I11" si="1">G6</f>
+        <v>166.49</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" ref="J6:J11" si="2">H6</f>
+        <v>10.94</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="22">
+        <v>12955.22</v>
+      </c>
+      <c r="D7" s="22">
+        <v>99.5</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>10235.012456599999</v>
+      </c>
+      <c r="G7" s="22">
+        <v>141.04</v>
+      </c>
+      <c r="H7" s="22">
+        <v>10.9</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="1"/>
+        <v>141.04</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="2"/>
+        <v>10.9</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="22">
+        <v>12959.84</v>
+      </c>
+      <c r="D8" s="22">
+        <v>99.5</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>10238.662395200001</v>
+      </c>
+      <c r="G8" s="22">
+        <v>115.55</v>
+      </c>
+      <c r="H8" s="22">
+        <v>10.9</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="1"/>
+        <v>115.55</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="2"/>
+        <v>10.9</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="22">
+        <v>13045.78</v>
+      </c>
+      <c r="D9" s="22">
+        <v>99.5</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>10306.557573400001</v>
+      </c>
+      <c r="G9" s="22">
+        <v>89.97</v>
+      </c>
+      <c r="H9" s="22">
+        <v>10.9</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="1"/>
+        <v>89.97</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="2"/>
+        <v>10.9</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="22">
+        <v>13041.17</v>
+      </c>
+      <c r="D10" s="22">
+        <v>99.5</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>10302.915535100001</v>
+      </c>
+      <c r="G10" s="22">
+        <v>64.459999999999994</v>
+      </c>
+      <c r="H10" s="22">
+        <v>10.9</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="1"/>
+        <v>64.459999999999994</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="2"/>
+        <v>10.9</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="22">
+        <v>11647.96</v>
+      </c>
+      <c r="D11" s="22">
+        <v>99.5</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F11" s="22">
+        <f>C11*D11/100*E11</f>
+        <v>9202.2378387999997</v>
+      </c>
+      <c r="G11" s="22">
+        <v>39.409999999999997</v>
+      </c>
+      <c r="H11" s="22">
+        <v>11.34</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" si="1"/>
+        <v>39.409999999999997</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="2"/>
+        <v>11.34</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="28">
+        <f>SUM(F5:F11)</f>
+        <v>68542.821093100007</v>
+      </c>
+      <c r="G12" s="22">
+        <f>SUMPRODUCT(F5:F11,G5:G11)/SUM(F5:F11)</f>
+        <v>113.98099365408643</v>
+      </c>
+      <c r="H12" s="22">
+        <f>SUMPRODUCT(F5:F11,H5:H11)/SUM(F5:F11)</f>
+        <v>11.014788254971169</v>
+      </c>
+      <c r="I12" s="22">
+        <f>SUMPRODUCT(F5:F11,I5:I11)/SUM(F5:F11)</f>
+        <v>113.98099365408643</v>
+      </c>
+      <c r="J12" s="22">
+        <f>SUMPRODUCT(F5:F11,J5:J11)/SUM(F5:F11)</f>
+        <v>11.014788254971169</v>
+      </c>
+      <c r="K12" s="16">
+        <f>SUM(K5:K11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="22">
+        <v>323.54000000000002</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F14" s="22">
+        <f>C14*D14/100*E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="H14" s="22">
+        <v>1.02</v>
+      </c>
+      <c r="I14" s="22">
+        <f>G14</f>
+        <v>39.619999999999997</v>
+      </c>
+      <c r="J14" s="22">
+        <f>H14</f>
+        <v>1.02</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="22">
+        <v>323.54000000000002</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F15" s="22">
+        <f t="shared" ref="F15:F43" si="3">C15*D15/100*E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="H15" s="22">
+        <v>1.02</v>
+      </c>
+      <c r="I15" s="22">
+        <f t="shared" ref="I15:I43" si="4">G15</f>
+        <v>39.619999999999997</v>
+      </c>
+      <c r="J15" s="22">
+        <f t="shared" ref="J15:J43" si="5">H15</f>
+        <v>1.02</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="22">
+        <v>538.20000000000005</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F16" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <v>64</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="I16" s="22">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="J16" s="22">
+        <f t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="22">
+        <v>538.20000000000005</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F17" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
+        <v>64</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="I17" s="22">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="J17" s="22">
+        <f t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="22">
+        <v>557.98</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="22">
+        <v>89.5</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" si="4"/>
+        <v>89.5</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="5"/>
+        <v>0.86</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="22">
+        <v>557.98</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <v>89.5</v>
+      </c>
+      <c r="H19" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="I19" s="22">
+        <f t="shared" si="4"/>
+        <v>89.5</v>
+      </c>
+      <c r="J19" s="22">
+        <f t="shared" si="5"/>
+        <v>0.86</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="22">
+        <v>560.72</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="22">
         <v>115</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="28"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="13" t="s">
+      <c r="H20" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="J20" s="22">
+        <f t="shared" si="5"/>
+        <v>0.86</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="22">
+        <v>560.72</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="22">
+        <v>115</v>
+      </c>
+      <c r="H21" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" si="5"/>
+        <v>0.86</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="22">
+        <v>560.57000000000005</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="22">
+        <v>140.5</v>
+      </c>
+      <c r="H22" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="4"/>
+        <v>140.5</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="5"/>
+        <v>0.86</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="22">
+        <v>560.57000000000005</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="22">
+        <v>140.5</v>
+      </c>
+      <c r="H23" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="I23" s="22">
+        <f t="shared" si="4"/>
+        <v>140.5</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="5"/>
+        <v>0.86</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="22">
+        <v>560.57000000000005</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="22">
+        <v>166</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="5"/>
+        <v>0.86</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="22">
+        <v>560.57000000000005</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0</v>
+      </c>
+      <c r="E25" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="22">
+        <v>166</v>
+      </c>
+      <c r="H25" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="I25" s="22">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="5"/>
+        <v>0.86</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="22">
+        <v>428.97</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="22">
+        <v>196.7</v>
+      </c>
+      <c r="H26" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="I26" s="22">
+        <f t="shared" si="4"/>
+        <v>196.7</v>
+      </c>
+      <c r="J26" s="22">
+        <f t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="22">
+        <v>428.97</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0</v>
+      </c>
+      <c r="E27" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="22">
+        <v>196.7</v>
+      </c>
+      <c r="H27" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="I27" s="22">
+        <f t="shared" si="4"/>
+        <v>196.7</v>
+      </c>
+      <c r="J27" s="22">
+        <f t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="22">
+        <v>330.03</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+      <c r="E28" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="22">
+        <v>192.89</v>
+      </c>
+      <c r="H28" s="22">
+        <v>9.73</v>
+      </c>
+      <c r="I28" s="22">
+        <f t="shared" si="4"/>
+        <v>192.89</v>
+      </c>
+      <c r="J28" s="22">
+        <f t="shared" si="5"/>
+        <v>9.73</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="22">
+        <v>330.03</v>
+      </c>
+      <c r="D29" s="22">
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="22">
+        <v>192.89</v>
+      </c>
+      <c r="H29" s="22">
+        <v>9.73</v>
+      </c>
+      <c r="I29" s="22">
+        <f t="shared" si="4"/>
+        <v>192.89</v>
+      </c>
+      <c r="J29" s="22">
+        <f t="shared" si="5"/>
+        <v>9.73</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="22">
+        <v>351.96</v>
+      </c>
+      <c r="D30" s="22">
+        <v>0</v>
+      </c>
+      <c r="E30" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="22">
+        <v>166.42</v>
+      </c>
+      <c r="H30" s="22">
+        <v>9.73</v>
+      </c>
+      <c r="I30" s="22">
+        <f t="shared" si="4"/>
+        <v>166.42</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="5"/>
+        <v>9.73</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="22">
+        <v>351.96</v>
+      </c>
+      <c r="D31" s="22">
+        <v>0</v>
+      </c>
+      <c r="E31" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F31" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="22">
+        <v>166.42</v>
+      </c>
+      <c r="H31" s="22">
+        <v>9.73</v>
+      </c>
+      <c r="I31" s="22">
+        <f t="shared" si="4"/>
+        <v>166.42</v>
+      </c>
+      <c r="J31" s="22">
+        <f t="shared" si="5"/>
+        <v>9.73</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="22">
+        <v>351.96</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
+        <v>140.91999999999999</v>
+      </c>
+      <c r="H32" s="22">
+        <v>9.73</v>
+      </c>
+      <c r="I32" s="22">
+        <f t="shared" si="4"/>
+        <v>140.91999999999999</v>
+      </c>
+      <c r="J32" s="22">
+        <f t="shared" si="5"/>
+        <v>9.73</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="22">
+        <v>351.96</v>
+      </c>
+      <c r="D33" s="22">
+        <v>0</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F33" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <v>140.91999999999999</v>
+      </c>
+      <c r="H33" s="22">
+        <v>9.73</v>
+      </c>
+      <c r="I33" s="22">
+        <f t="shared" si="4"/>
+        <v>140.91999999999999</v>
+      </c>
+      <c r="J33" s="22">
+        <f t="shared" si="5"/>
+        <v>9.73</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="22">
+        <v>351.96</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F34" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>115.42</v>
+      </c>
+      <c r="H34" s="22">
+        <v>9.73</v>
+      </c>
+      <c r="I34" s="22">
+        <f t="shared" si="4"/>
+        <v>115.42</v>
+      </c>
+      <c r="J34" s="22">
+        <f t="shared" si="5"/>
+        <v>9.73</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="22">
+        <v>351.96</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0</v>
+      </c>
+      <c r="E35" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F35" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="22">
+        <v>115.42</v>
+      </c>
+      <c r="H35" s="22">
+        <v>9.73</v>
+      </c>
+      <c r="I35" s="22">
+        <f t="shared" si="4"/>
+        <v>115.42</v>
+      </c>
+      <c r="J35" s="22">
+        <f t="shared" si="5"/>
+        <v>9.73</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="22">
+        <v>351.96</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+      <c r="E36" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F36" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="22">
+        <v>89.92</v>
+      </c>
+      <c r="H36" s="22">
+        <v>9.73</v>
+      </c>
+      <c r="I36" s="22">
+        <f t="shared" si="4"/>
+        <v>89.92</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="5"/>
+        <v>9.73</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="22">
+        <v>351.96</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0</v>
+      </c>
+      <c r="E37" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F37" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="22">
+        <v>89.92</v>
+      </c>
+      <c r="H37" s="22">
+        <v>9.73</v>
+      </c>
+      <c r="I37" s="22">
+        <f t="shared" si="4"/>
+        <v>89.92</v>
+      </c>
+      <c r="J37" s="22">
+        <f t="shared" si="5"/>
+        <v>9.73</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="22">
+        <v>351.96</v>
+      </c>
+      <c r="D38" s="22">
+        <v>0</v>
+      </c>
+      <c r="E38" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F38" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="22">
+        <v>64.42</v>
+      </c>
+      <c r="H38" s="22">
+        <v>9.73</v>
+      </c>
+      <c r="I38" s="22">
+        <f t="shared" si="4"/>
+        <v>64.42</v>
+      </c>
+      <c r="J38" s="22">
+        <f t="shared" si="5"/>
+        <v>9.73</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="22">
+        <v>351.96</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0</v>
+      </c>
+      <c r="E39" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F39" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="22">
+        <v>64.42</v>
+      </c>
+      <c r="H39" s="22">
+        <v>9.73</v>
+      </c>
+      <c r="I39" s="22">
+        <f t="shared" si="4"/>
+        <v>64.42</v>
+      </c>
+      <c r="J39" s="22">
+        <f t="shared" si="5"/>
+        <v>9.73</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="22">
+        <v>347.48</v>
+      </c>
+      <c r="D40" s="22">
+        <v>0</v>
+      </c>
+      <c r="E40" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F40" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="22">
+        <v>40.22</v>
+      </c>
+      <c r="H40" s="22">
+        <v>13.42</v>
+      </c>
+      <c r="I40" s="22">
+        <f t="shared" si="4"/>
+        <v>40.22</v>
+      </c>
+      <c r="J40" s="22">
+        <f t="shared" si="5"/>
+        <v>13.42</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="22">
+        <v>347.48</v>
+      </c>
+      <c r="D41" s="22">
+        <v>0</v>
+      </c>
+      <c r="E41" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F41" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="22">
+        <v>40.22</v>
+      </c>
+      <c r="H41" s="22">
+        <v>13.42</v>
+      </c>
+      <c r="I41" s="22">
+        <f t="shared" si="4"/>
+        <v>40.22</v>
+      </c>
+      <c r="J41" s="22">
+        <f t="shared" si="5"/>
+        <v>13.42</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="22">
+        <v>682.74</v>
+      </c>
+      <c r="D42" s="22">
+        <v>0</v>
+      </c>
+      <c r="E42" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F42" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="22">
+        <v>191.19</v>
+      </c>
+      <c r="H42" s="22">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="I42" s="22">
+        <f t="shared" si="4"/>
+        <v>191.19</v>
+      </c>
+      <c r="J42" s="22">
+        <f t="shared" si="5"/>
+        <v>18.559999999999999</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="22">
+        <v>682.82</v>
+      </c>
+      <c r="D43" s="22">
+        <v>0</v>
+      </c>
+      <c r="E43" s="22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F43" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="22">
+        <v>191.19</v>
+      </c>
+      <c r="H43" s="22">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="I43" s="22">
+        <f t="shared" si="4"/>
+        <v>191.19</v>
+      </c>
+      <c r="J43" s="22">
+        <f t="shared" si="5"/>
+        <v>18.559999999999999</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="28">
+        <f>SUM(F14:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22">
+        <f>SUMPRODUCT(F14:F43,I14:I43)/(SUM(F14:F43)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="22">
+        <f>SUMPRODUCT(F14:F43,J14:J43)/(SUM(F14:F43)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <f>SUM(K14:K43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="22">
+        <v>22.61</v>
+      </c>
+      <c r="D46" s="28">
+        <v>100</v>
+      </c>
+      <c r="E46" s="28">
+        <v>1</v>
+      </c>
+      <c r="F46" s="22">
+        <f>C46*D46/100*E46</f>
+        <v>22.61</v>
+      </c>
+      <c r="G46" s="22">
+        <v>7.51</v>
+      </c>
+      <c r="H46" s="22">
+        <v>14.51</v>
+      </c>
+      <c r="I46" s="22">
+        <f>G46</f>
+        <v>7.51</v>
+      </c>
+      <c r="J46" s="22">
+        <f>H46</f>
+        <v>14.51</v>
+      </c>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="22">
+        <v>209.61</v>
+      </c>
+      <c r="D47" s="22">
+        <v>100</v>
+      </c>
+      <c r="E47" s="22">
+        <v>1</v>
+      </c>
+      <c r="F47" s="22">
+        <f>C47*D47/100*E47</f>
+        <v>209.61</v>
+      </c>
+      <c r="G47" s="22">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H47" s="22">
+        <v>16.86</v>
+      </c>
+      <c r="I47" s="22">
+        <f t="shared" ref="I47:I48" si="6">G47</f>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J47" s="22">
+        <f t="shared" ref="J47:J48" si="7">H47</f>
+        <v>16.86</v>
+      </c>
+      <c r="K47" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="22">
+        <v>209.61</v>
+      </c>
+      <c r="D48" s="22">
+        <v>100</v>
+      </c>
+      <c r="E48" s="22">
+        <v>1</v>
+      </c>
+      <c r="F48" s="22">
+        <f>C48*D48/100*E48</f>
+        <v>209.61</v>
+      </c>
+      <c r="G48" s="22">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H48" s="22">
+        <v>16.86</v>
+      </c>
+      <c r="I48" s="22">
+        <f t="shared" si="6"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J48" s="22">
+        <f t="shared" si="7"/>
+        <v>16.86</v>
+      </c>
+      <c r="K48" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="28">
+        <f>SUM(F47:F48)</f>
+        <v>419.22</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22">
+        <f>SUMPRODUCT(F46:F48,I46:I48)/SUM(F46:F48)</f>
+        <v>4.4358022316275481</v>
+      </c>
+      <c r="J49" s="22">
+        <f>SUMPRODUCT(F46:F48,J46:J48)/SUM(F46:F48)</f>
+        <v>16.739742208541745</v>
+      </c>
+      <c r="K49" s="16">
+        <f t="shared" ref="K49" si="8">SUM(K47:K48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="22">
+        <v>65</v>
+      </c>
+      <c r="D51" s="22">
+        <v>98</v>
+      </c>
+      <c r="E51" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="F51" s="22">
+        <v>14.4</v>
+      </c>
+      <c r="G51" s="22">
+        <v>25.37</v>
+      </c>
+      <c r="H51" s="22">
+        <v>3.86</v>
+      </c>
+      <c r="I51" s="30">
+        <f>G51</f>
+        <v>25.37</v>
+      </c>
+      <c r="J51" s="30">
+        <f>H51</f>
+        <v>3.86</v>
+      </c>
+      <c r="K51" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="22">
+        <v>65</v>
+      </c>
+      <c r="D52" s="22">
+        <v>98</v>
+      </c>
+      <c r="E52" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="F52" s="22">
+        <v>11.9</v>
+      </c>
+      <c r="G52" s="22">
+        <v>25.37</v>
+      </c>
+      <c r="H52" s="22">
+        <v>3.86</v>
+      </c>
+      <c r="I52" s="30">
+        <f t="shared" ref="I52:I62" si="9">G52</f>
+        <v>25.37</v>
+      </c>
+      <c r="J52" s="30">
+        <f t="shared" ref="J52:J62" si="10">H52</f>
+        <v>3.86</v>
+      </c>
+      <c r="K52" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="22">
+        <v>30</v>
+      </c>
+      <c r="D53" s="32">
+        <v>98</v>
+      </c>
+      <c r="E53" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="F53" s="22">
+        <f>C53*D53*E53/100</f>
+        <v>26.166</v>
+      </c>
+      <c r="G53" s="22">
+        <v>20.74</v>
+      </c>
+      <c r="H53" s="22">
+        <v>16.96</v>
+      </c>
+      <c r="I53" s="33">
+        <f t="shared" si="9"/>
+        <v>20.74</v>
+      </c>
+      <c r="J53" s="33">
+        <f t="shared" si="10"/>
+        <v>16.96</v>
+      </c>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="22">
+        <v>30</v>
+      </c>
+      <c r="D54" s="32">
+        <v>98</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="F54" s="22">
+        <f>C54*D54*E54/100</f>
+        <v>26.166</v>
+      </c>
+      <c r="G54" s="22">
+        <v>24.69</v>
+      </c>
+      <c r="H54" s="22">
+        <v>16.96</v>
+      </c>
+      <c r="I54" s="33">
+        <f t="shared" si="9"/>
+        <v>24.69</v>
+      </c>
+      <c r="J54" s="33">
+        <f t="shared" si="10"/>
+        <v>16.96</v>
+      </c>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="22">
+        <v>1040.9100000000001</v>
+      </c>
+      <c r="D55" s="22">
+        <v>98</v>
+      </c>
+      <c r="E55" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="F55" s="22">
+        <v>74.8</v>
+      </c>
+      <c r="G55" s="22">
+        <v>154</v>
+      </c>
+      <c r="H55" s="22">
+        <v>18.02</v>
+      </c>
+      <c r="I55" s="30">
+        <f t="shared" si="9"/>
+        <v>154</v>
+      </c>
+      <c r="J55" s="30">
+        <f t="shared" si="10"/>
+        <v>18.02</v>
+      </c>
+      <c r="K55" s="14">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="22">
+        <v>1040.9100000000001</v>
+      </c>
+      <c r="D56" s="22">
+        <v>98</v>
+      </c>
+      <c r="E56" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="F56" s="22">
+        <v>74.8</v>
+      </c>
+      <c r="G56" s="22">
+        <v>154</v>
+      </c>
+      <c r="H56" s="22">
+        <v>18.02</v>
+      </c>
+      <c r="I56" s="30">
+        <f t="shared" si="9"/>
+        <v>154</v>
+      </c>
+      <c r="J56" s="30">
+        <f t="shared" si="10"/>
+        <v>18.02</v>
+      </c>
+      <c r="K56" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="22">
+        <v>1041.9100000000001</v>
+      </c>
+      <c r="D57" s="22">
+        <v>98</v>
+      </c>
+      <c r="E57" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="F57" s="22">
+        <v>156.4</v>
+      </c>
+      <c r="G57" s="22">
+        <v>102.25</v>
+      </c>
+      <c r="H57" s="22">
+        <v>18.02</v>
+      </c>
+      <c r="I57" s="30">
+        <f t="shared" si="9"/>
+        <v>102.25</v>
+      </c>
+      <c r="J57" s="30">
+        <f t="shared" si="10"/>
+        <v>18.02</v>
+      </c>
+      <c r="K57" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="22">
+        <v>1041.9100000000001</v>
+      </c>
+      <c r="D58" s="22">
+        <v>98</v>
+      </c>
+      <c r="E58" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="F58" s="22">
+        <v>136.6</v>
+      </c>
+      <c r="G58" s="22">
+        <v>102.25</v>
+      </c>
+      <c r="H58" s="22">
+        <v>18.02</v>
+      </c>
+      <c r="I58" s="30">
+        <f t="shared" si="9"/>
+        <v>102.25</v>
+      </c>
+      <c r="J58" s="30">
+        <f t="shared" si="10"/>
+        <v>18.02</v>
+      </c>
+      <c r="K58" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="22">
+        <v>976.75</v>
+      </c>
+      <c r="D59" s="22">
+        <v>98</v>
+      </c>
+      <c r="E59" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="F59" s="22">
+        <v>53.4</v>
+      </c>
+      <c r="G59" s="22">
+        <v>52.03</v>
+      </c>
+      <c r="H59" s="22">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="I59" s="30">
+        <f t="shared" si="9"/>
+        <v>52.03</v>
+      </c>
+      <c r="J59" s="30">
+        <f t="shared" si="10"/>
+        <v>18.010000000000002</v>
+      </c>
+      <c r="K59" s="14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="22">
+        <v>976.75</v>
+      </c>
+      <c r="D60" s="22">
+        <v>98</v>
+      </c>
+      <c r="E60" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="F60" s="22">
+        <v>53.4</v>
+      </c>
+      <c r="G60" s="22">
+        <v>52.03</v>
+      </c>
+      <c r="H60" s="22">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="I60" s="30">
+        <f t="shared" si="9"/>
+        <v>52.03</v>
+      </c>
+      <c r="J60" s="30">
+        <f t="shared" si="10"/>
+        <v>18.010000000000002</v>
+      </c>
+      <c r="K60" s="14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="22">
+        <v>332.56</v>
+      </c>
+      <c r="D61" s="22">
+        <v>98</v>
+      </c>
+      <c r="E61" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="F61" s="22">
+        <v>53.4</v>
+      </c>
+      <c r="G61" s="22">
+        <v>22.66</v>
+      </c>
+      <c r="H61" s="22">
+        <v>14.47</v>
+      </c>
+      <c r="I61" s="30">
+        <f t="shared" si="9"/>
+        <v>22.66</v>
+      </c>
+      <c r="J61" s="30">
+        <f t="shared" si="10"/>
+        <v>14.47</v>
+      </c>
+      <c r="K61" s="14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="22">
+        <v>332.56</v>
+      </c>
+      <c r="D62" s="22">
+        <v>98</v>
+      </c>
+      <c r="E62" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="F62" s="22">
+        <v>53.4</v>
+      </c>
+      <c r="G62" s="22">
+        <v>22.66</v>
+      </c>
+      <c r="H62" s="22">
+        <v>14.47</v>
+      </c>
+      <c r="I62" s="30">
+        <f t="shared" si="9"/>
+        <v>22.66</v>
+      </c>
+      <c r="J62" s="30">
+        <f t="shared" si="10"/>
+        <v>14.47</v>
+      </c>
+      <c r="K62" s="14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="28">
+        <f>SUM(F51:F62)</f>
+        <v>734.83199999999999</v>
+      </c>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22">
+        <f>SUMPRODUCT(F51:F62,I51:I62)/SUM(F51:F62)</f>
+        <v>85.503209413852417</v>
+      </c>
+      <c r="J63" s="22">
+        <f>SUMPRODUCT(F51:F62,J51:J62)/SUM(F51:F62)</f>
+        <v>16.920309295185838</v>
+      </c>
+      <c r="K63" s="16">
+        <f>SUM(K51:K62)</f>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="38"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="22">
+        <v>15.79</v>
+      </c>
+      <c r="D65" s="32">
+        <v>0</v>
+      </c>
+      <c r="E65" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="F65" s="22">
+        <f>C65*D65/100*E65</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="22">
+        <v>24.83</v>
+      </c>
+      <c r="H65" s="22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I65" s="32">
+        <f>G65</f>
+        <v>24.83</v>
+      </c>
+      <c r="J65" s="32">
+        <f>H65</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K65" s="14">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="3" t="s">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="22">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="D66" s="32">
+        <v>0</v>
+      </c>
+      <c r="E66" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="F66" s="22">
+        <f>C66*D66/100*E66</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="22">
+        <v>20.27</v>
+      </c>
+      <c r="H66" s="22">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I66" s="32">
+        <f>G66</f>
+        <v>20.27</v>
+      </c>
+      <c r="J66" s="32">
+        <f>H66</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K66" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="28">
+        <f>SUM(F65:F66)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22">
+        <f>SUMPRODUCT(F65:F66,I65:I66)/(SUM(F65:F66)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="22">
+        <f>SUMPRODUCT(F65:F66,J65:J66)/(SUM(F65:F66)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="16">
+        <f t="shared" ref="K67" si="11">SUM(K65:K66)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="22">
+        <v>26.9</v>
+      </c>
+      <c r="D69" s="32">
+        <v>0</v>
+      </c>
+      <c r="E69" s="22">
+        <v>1</v>
+      </c>
+      <c r="F69" s="22">
+        <f>C69*D69/100*E69</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="22">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H69" s="22">
+        <v>0.91</v>
+      </c>
+      <c r="I69" s="32">
+        <f>G69</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J69" s="32">
+        <f>H69</f>
+        <v>0.91</v>
+      </c>
+      <c r="K69" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="22">
+        <v>15.79</v>
+      </c>
+      <c r="D70" s="32">
+        <v>0</v>
+      </c>
+      <c r="E70" s="22">
+        <v>1</v>
+      </c>
+      <c r="F70" s="22">
+        <f>C70*D70/100*E70</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="22">
+        <v>24.83</v>
+      </c>
+      <c r="H70" s="22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I70" s="32">
+        <f>G70</f>
+        <v>24.83</v>
+      </c>
+      <c r="J70" s="32">
+        <f>H70</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K70" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="28">
+        <f>SUM(F69:F70)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28">
+        <f>SUMPRODUCT(F69:F70,I69:I70)/(SUM(F69:F70)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="28">
+        <f>SUMPRODUCT(F69:F70,J69:J70)/(SUM(F69:F70)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="16">
+        <f>SUM(K69:K70)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="14">
-        <v>10024.379999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="14">
-        <v>190.76</v>
-      </c>
-      <c r="H5" s="14">
-        <v>11.33</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="14">
-        <v>13085.42</v>
-      </c>
-      <c r="D6" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="14">
-        <v>166.49</v>
-      </c>
-      <c r="H6" s="14">
-        <v>10.94</v>
-      </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="14">
-        <v>12955.22</v>
-      </c>
-      <c r="D7" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="14">
-        <v>141.04</v>
-      </c>
-      <c r="H7" s="14">
-        <v>10.9</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14">
-        <v>12959.84</v>
-      </c>
-      <c r="D8" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="14">
-        <v>115.55</v>
-      </c>
-      <c r="H8" s="14">
-        <v>10.9</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="14">
-        <v>13045.78</v>
-      </c>
-      <c r="D9" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="14">
-        <v>89.97</v>
-      </c>
-      <c r="H9" s="14">
-        <v>10.9</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="14">
-        <v>13041.17</v>
-      </c>
-      <c r="D10" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="14">
-        <v>64.459999999999994</v>
-      </c>
-      <c r="H10" s="14">
-        <v>10.9</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="14">
-        <v>11647.96</v>
-      </c>
-      <c r="D11" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="14">
-        <v>39.409999999999997</v>
-      </c>
-      <c r="H11" s="14">
-        <v>11.34</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="14">
-        <v>323.54000000000002</v>
-      </c>
-      <c r="D13" s="9">
-        <v>32.4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F13" s="10">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="G13" s="17">
-        <v>39.619999999999997</v>
-      </c>
-      <c r="H13" s="17">
-        <v>1.02</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="1">
-        <v>14040</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="14">
-        <v>323.54000000000002</v>
-      </c>
-      <c r="D14" s="9">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F14" s="10">
-        <v>49.6</v>
-      </c>
-      <c r="G14" s="17">
-        <v>39.619999999999997</v>
-      </c>
-      <c r="H14" s="17">
-        <v>1.02</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="1">
-        <v>14040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="14">
-        <v>538.20000000000005</v>
-      </c>
-      <c r="D15" s="9">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F15" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G15" s="38">
-        <v>64</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="1">
-        <v>18316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="14">
-        <v>538.20000000000005</v>
-      </c>
-      <c r="D16" s="9">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F16" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G16" s="38">
-        <v>64</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="1">
-        <v>18316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="14">
-        <v>557.98</v>
-      </c>
-      <c r="D17" s="9">
-        <v>32.4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F17" s="10">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="G17" s="14">
-        <v>89.5</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0.86</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="1">
-        <v>18316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="14">
-        <v>557.98</v>
-      </c>
-      <c r="D18" s="9">
-        <v>40</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F18" s="10">
-        <v>49.6</v>
-      </c>
-      <c r="G18" s="14">
-        <v>89.5</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0.86</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="1">
-        <v>18316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="14">
-        <v>560.72</v>
-      </c>
-      <c r="D19" s="9">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F19" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G19" s="14">
-        <v>115</v>
-      </c>
-      <c r="H19" s="14">
-        <v>0.86</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="1">
-        <v>18316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="14">
-        <v>560.72</v>
-      </c>
-      <c r="D20" s="9">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F20" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G20" s="14">
-        <v>115</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0.86</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="1">
-        <v>18316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="14">
-        <v>560.57000000000005</v>
-      </c>
-      <c r="D21" s="9">
-        <v>32.4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F21" s="10">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="G21" s="14">
-        <v>140.5</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0.86</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="1">
-        <v>18316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="14">
-        <v>560.57000000000005</v>
-      </c>
-      <c r="D22" s="9">
-        <v>40</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F22" s="10">
-        <v>49.6</v>
-      </c>
-      <c r="G22" s="14">
-        <v>140.5</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0.86</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="1">
-        <v>18316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="14">
-        <v>560.57000000000005</v>
-      </c>
-      <c r="D23" s="9">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F23" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G23" s="14">
-        <v>166</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0.86</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="1">
-        <v>18316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="14">
-        <v>560.57000000000005</v>
-      </c>
-      <c r="D24" s="9">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F24" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G24" s="14">
-        <v>166</v>
-      </c>
-      <c r="H24" s="14">
-        <v>0.86</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="1">
-        <v>18316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="14">
-        <v>428.97</v>
-      </c>
-      <c r="D25" s="9">
-        <v>20</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F25" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G25" s="14">
-        <v>196.7</v>
-      </c>
-      <c r="H25" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="1">
-        <v>15619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="14">
-        <v>428.97</v>
-      </c>
-      <c r="D26" s="9">
-        <v>20</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F26" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G26" s="14">
-        <v>196.7</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="1">
-        <v>15619</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="14">
-        <v>330.03</v>
-      </c>
-      <c r="D27" s="9">
-        <v>32.4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F27" s="10">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="G27" s="14">
-        <v>192.89</v>
-      </c>
-      <c r="H27" s="14">
-        <v>9.73</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="14">
-        <v>330.03</v>
-      </c>
-      <c r="D28" s="9">
-        <v>40</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F28" s="10">
-        <v>49.6</v>
-      </c>
-      <c r="G28" s="14">
-        <v>192.89</v>
-      </c>
-      <c r="H28" s="14">
-        <v>9.73</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="14">
-        <v>351.96</v>
-      </c>
-      <c r="D29" s="9">
-        <v>20</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F29" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G29" s="14">
-        <v>166.42</v>
-      </c>
-      <c r="H29" s="14">
-        <v>9.73</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="10">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="22" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="14">
-        <v>351.96</v>
-      </c>
-      <c r="D30" s="9">
-        <v>20</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F30" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G30" s="14">
-        <v>166.42</v>
-      </c>
-      <c r="H30" s="14">
-        <v>9.73</v>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="10">
+      <c r="D73" s="22">
+        <v>100</v>
+      </c>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22">
+        <v>6.76</v>
+      </c>
+      <c r="G73" s="22">
+        <v>13.05</v>
+      </c>
+      <c r="H73" s="22">
+        <v>23.14</v>
+      </c>
+      <c r="I73" s="22">
+        <f>G73</f>
+        <v>13.05</v>
+      </c>
+      <c r="J73" s="22">
+        <f>H73</f>
+        <v>23.14</v>
+      </c>
+      <c r="K73" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="14">
-        <v>351.96</v>
-      </c>
-      <c r="D31" s="9">
-        <v>32.4</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F31" s="10">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="G31" s="14">
-        <v>140.91999999999999</v>
-      </c>
-      <c r="H31" s="14">
-        <v>9.73</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="14">
-        <v>351.96</v>
-      </c>
-      <c r="D32" s="9">
-        <v>40</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F32" s="10">
-        <v>49.6</v>
-      </c>
-      <c r="G32" s="14">
-        <v>140.91999999999999</v>
-      </c>
-      <c r="H32" s="14">
-        <v>9.73</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="14">
-        <v>351.96</v>
-      </c>
-      <c r="D33" s="9">
-        <v>20</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F33" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G33" s="14">
-        <v>115.42</v>
-      </c>
-      <c r="H33" s="14">
-        <v>9.73</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="10">
+      <c r="D74" s="22">
+        <v>100</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22">
+        <v>93.27</v>
+      </c>
+      <c r="G74" s="22">
+        <v>18.193999999999999</v>
+      </c>
+      <c r="H74" s="22">
+        <v>23.14</v>
+      </c>
+      <c r="I74" s="22">
+        <f t="shared" ref="I74:I75" si="12">G74</f>
+        <v>18.193999999999999</v>
+      </c>
+      <c r="J74" s="22">
+        <f t="shared" ref="J74:J75" si="13">H74</f>
+        <v>23.14</v>
+      </c>
+      <c r="K74" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="14">
-        <v>351.96</v>
-      </c>
-      <c r="D34" s="9">
-        <v>20</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F34" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G34" s="14">
-        <v>115.42</v>
-      </c>
-      <c r="H34" s="14">
-        <v>9.73</v>
-      </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="14">
-        <v>351.96</v>
-      </c>
-      <c r="D35" s="9">
-        <v>32.4</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F35" s="10">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="G35" s="14">
-        <v>89.92</v>
-      </c>
-      <c r="H35" s="14">
-        <v>9.73</v>
-      </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="14">
-        <v>351.96</v>
-      </c>
-      <c r="D36" s="9">
-        <v>40</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F36" s="10">
-        <v>49.6</v>
-      </c>
-      <c r="G36" s="14">
-        <v>89.92</v>
-      </c>
-      <c r="H36" s="14">
-        <v>9.73</v>
-      </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="14">
-        <v>351.96</v>
-      </c>
-      <c r="D37" s="9">
-        <v>20</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F37" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G37" s="14">
-        <v>64.42</v>
-      </c>
-      <c r="H37" s="14">
-        <v>9.73</v>
-      </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="14">
-        <v>351.96</v>
-      </c>
-      <c r="D38" s="9">
-        <v>20</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F38" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G38" s="14">
-        <v>64.42</v>
-      </c>
-      <c r="H38" s="14">
-        <v>9.73</v>
-      </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="14">
-        <v>347.48</v>
-      </c>
-      <c r="D39" s="9">
-        <v>20</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F39" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G39" s="14">
-        <v>40.22</v>
-      </c>
-      <c r="H39" s="14">
-        <v>13.42</v>
-      </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="14">
-        <v>347.48</v>
-      </c>
-      <c r="D40" s="9">
-        <v>20</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F40" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G40" s="14">
-        <v>40.22</v>
-      </c>
-      <c r="H40" s="14">
-        <v>13.42</v>
-      </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="14">
-        <v>682.74</v>
-      </c>
-      <c r="D41" s="9">
-        <v>20</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F41" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G41" s="14">
-        <v>191.19</v>
-      </c>
-      <c r="H41" s="14">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="14">
-        <v>682.82</v>
-      </c>
-      <c r="D42" s="9">
-        <v>20</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F42" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="G42" s="14">
-        <v>191.19</v>
-      </c>
-      <c r="H42" s="14">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="D75" s="22">
+        <v>100</v>
+      </c>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22">
+        <v>1.26</v>
+      </c>
+      <c r="G75" s="22">
+        <v>16.25</v>
+      </c>
+      <c r="H75" s="22">
+        <v>26.2</v>
+      </c>
+      <c r="I75" s="22">
+        <f t="shared" si="12"/>
+        <v>16.25</v>
+      </c>
+      <c r="J75" s="22">
+        <f t="shared" si="13"/>
+        <v>26.2</v>
+      </c>
+      <c r="K75" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="11">
-        <f>SUM(F13:F42)</f>
-        <v>1152.6000000000001</v>
-      </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="11">
-        <f>SUM(L13:L42)</f>
-        <v>243996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="14">
-        <v>22.61</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="14">
-        <v>7.51</v>
-      </c>
-      <c r="H45" s="14">
-        <v>14.51</v>
-      </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="14">
-        <v>209.61</v>
-      </c>
-      <c r="D46" s="1">
-        <v>100</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="9">
-        <v>100.5</v>
-      </c>
-      <c r="G46" s="14">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="H46" s="14">
-        <v>16.86</v>
-      </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="14">
-        <v>209.61</v>
-      </c>
-      <c r="D47" s="1">
-        <v>100</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="9">
-        <v>100.5</v>
-      </c>
-      <c r="G47" s="14">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="H47" s="14">
-        <v>16.86</v>
-      </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="11">
-        <f>SUM(F46:F47)</f>
-        <v>201</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="11">
-        <f t="shared" ref="L48" si="0">SUM(L46:L47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="14">
-        <v>65</v>
-      </c>
-      <c r="D50" s="1">
-        <v>98</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="F50" s="10">
-        <v>14.4</v>
-      </c>
-      <c r="G50" s="39">
-        <v>25.37</v>
-      </c>
-      <c r="H50" s="39">
-        <v>3.86</v>
-      </c>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="L50" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="14">
-        <v>65</v>
-      </c>
-      <c r="D51" s="1">
-        <v>98</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="F51" s="10">
-        <v>11.9</v>
-      </c>
-      <c r="G51" s="39">
-        <v>25.37</v>
-      </c>
-      <c r="H51" s="39">
-        <v>3.86</v>
-      </c>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="L51" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="17">
-        <v>30</v>
-      </c>
-      <c r="D52" s="40">
-        <v>75</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="39">
-        <v>20.74</v>
-      </c>
-      <c r="H52" s="39">
-        <v>16.96</v>
-      </c>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="10"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="17">
-        <v>30</v>
-      </c>
-      <c r="D53" s="40">
-        <v>75</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="39">
-        <v>24.69</v>
-      </c>
-      <c r="H53" s="39">
-        <v>16.96</v>
-      </c>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="10"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="14">
-        <v>1040.9100000000001</v>
-      </c>
-      <c r="D54" s="1">
-        <v>98</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="F54" s="10">
-        <v>74.8</v>
-      </c>
-      <c r="G54" s="39">
-        <v>154</v>
-      </c>
-      <c r="H54" s="39">
-        <v>18.02</v>
-      </c>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="39">
-        <v>1040.9100000000001</v>
-      </c>
-      <c r="D55" s="1">
-        <v>98</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="F55" s="10">
-        <v>74.8</v>
-      </c>
-      <c r="G55" s="39">
-        <v>154</v>
-      </c>
-      <c r="H55" s="39">
-        <v>18.02</v>
-      </c>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="14">
-        <v>1041.9100000000001</v>
-      </c>
-      <c r="D56" s="1">
-        <v>98</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="F56" s="10">
-        <v>156.4</v>
-      </c>
-      <c r="G56" s="39">
-        <v>102.25</v>
-      </c>
-      <c r="H56" s="39">
-        <v>18.02</v>
-      </c>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="14">
-        <v>1041.9100000000001</v>
-      </c>
-      <c r="D57" s="1">
-        <v>98</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="F57" s="10">
-        <v>136.6</v>
-      </c>
-      <c r="G57" s="39">
-        <v>102.25</v>
-      </c>
-      <c r="H57" s="39">
-        <v>18.02</v>
-      </c>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="39">
-        <v>976.75</v>
-      </c>
-      <c r="D58" s="1">
-        <v>98</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="F58" s="10">
-        <v>53.4</v>
-      </c>
-      <c r="G58" s="39">
-        <v>52.03</v>
-      </c>
-      <c r="H58" s="39">
-        <v>18.010000000000002</v>
-      </c>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="39">
-        <v>976.75</v>
-      </c>
-      <c r="D59" s="1">
-        <v>98</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="F59" s="10">
-        <v>53.4</v>
-      </c>
-      <c r="G59" s="39">
-        <v>52.03</v>
-      </c>
-      <c r="H59" s="39">
-        <v>18.010000000000002</v>
-      </c>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="14">
-        <v>332.56</v>
-      </c>
-      <c r="D60" s="1">
-        <v>98</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="F60" s="10">
-        <v>53.4</v>
-      </c>
-      <c r="G60" s="39">
-        <v>22.66</v>
-      </c>
-      <c r="H60" s="39">
-        <v>14.47</v>
-      </c>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="14">
-        <v>332.56</v>
-      </c>
-      <c r="D61" s="1">
-        <v>98</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="F61" s="10">
-        <v>53.4</v>
-      </c>
-      <c r="G61" s="39">
-        <v>22.66</v>
-      </c>
-      <c r="H61" s="39">
-        <v>14.47</v>
-      </c>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="11">
-        <f>SUM(F50:F61)</f>
-        <v>682.49999999999989</v>
-      </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="11">
-        <f>SUM(L50:L61)</f>
-        <v>810</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="26"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="14">
-        <v>15.79</v>
-      </c>
-      <c r="D64" s="1">
-        <v>50</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F64" s="22">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G64" s="1">
-        <v>20.27</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="14">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="D65" s="1">
-        <v>50</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F65" s="22">
-        <v>7.2</v>
-      </c>
-      <c r="G65" s="1">
-        <v>24.83</v>
-      </c>
-      <c r="H65" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="11">
-        <f>SUM(F64:F65)</f>
-        <v>15.5</v>
-      </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="11">
-        <f t="shared" ref="L66" si="1">SUM(L64:L65)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="14">
-        <v>26.9</v>
-      </c>
-      <c r="D68" s="1">
-        <v>50</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1</v>
-      </c>
-      <c r="F68" s="10">
-        <v>7.7</v>
-      </c>
-      <c r="G68" s="14">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="H68" s="14">
-        <v>0.91</v>
-      </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="14">
-        <v>15.79</v>
-      </c>
-      <c r="D69" s="1">
-        <v>50</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="G69" s="14">
-        <v>24.83</v>
-      </c>
-      <c r="H69" s="14">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="11">
-        <f>SUM(F68:F69)</f>
-        <v>11.5</v>
-      </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="11">
-        <f>SUM(L68:L69)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="23">
-        <v>6.76</v>
-      </c>
-      <c r="G72" s="23">
-        <v>13.05</v>
-      </c>
-      <c r="H72" s="23">
-        <v>23.14</v>
-      </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="23">
-        <v>93.27</v>
-      </c>
-      <c r="G73" s="23">
-        <v>18.193999999999999</v>
-      </c>
-      <c r="H73" s="23">
-        <v>23.14</v>
-      </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="23">
-        <v>1.26</v>
-      </c>
-      <c r="G74" s="23">
-        <v>16.25</v>
-      </c>
-      <c r="H74" s="23">
-        <v>26.2</v>
-      </c>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="11">
-        <f>SUM(F72:F74)</f>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="28">
+        <f>SUM(F73:F75)</f>
         <v>101.29</v>
       </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="11">
-        <f t="shared" ref="L75" si="2">SUM(L72:L74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="11"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22">
+        <f>SUMPRODUCT(F73:F75,I73:I75)/(SUM(F73:F75)+1)</f>
+        <v>17.652237559878774</v>
+      </c>
+      <c r="J76" s="22">
+        <f>SUMPRODUCT(F73:F75,J73:J75)/(SUM(F73:F75)+1)</f>
+        <v>22.951473262293479</v>
+      </c>
+      <c r="K76" s="16">
+        <f t="shared" ref="K76" si="14">SUM(K73:K75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="16"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="11">
-        <v>3478.4</v>
-      </c>
-      <c r="G77" s="20">
-        <v>39.65</v>
-      </c>
-      <c r="H77" s="20">
-        <v>6.01</v>
-      </c>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28">
+        <v>12489.28</v>
+      </c>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28">
+        <v>99.79</v>
+      </c>
+      <c r="J78" s="28">
+        <v>11.51</v>
+      </c>
+      <c r="K78" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="11">
-        <v>1307.0999999999999</v>
-      </c>
-      <c r="G78" s="20">
-        <v>40.24</v>
-      </c>
-      <c r="H78" s="20">
-        <v>1.92</v>
-      </c>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="11">
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28">
+        <f>F12+F44+F49+F63+F67+F71+F76</f>
+        <v>69798.163093099996</v>
+      </c>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28">
+        <f>(F12*I12+F44*I44+F49*I49+F63*I63+F71*I71+F76*I76)/SUM(F76,F71,F63,F49,F44,F12)</f>
+        <v>112.88344239189142</v>
+      </c>
+      <c r="J79" s="28">
+        <f>(F12*J12+F44*J44+F49*J49+F63*J63+F67*J67+F71*J71+F76*J76)/SUM(F76+F71+F67+F63+F49+F44+F12)</f>
+        <v>11.128668728404666</v>
+      </c>
+      <c r="K79" s="16">
         <v>1066</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="11">
-        <f>SUM(F77+F78)</f>
-        <v>4785.5</v>
-      </c>
-      <c r="G79" s="20">
-        <v>39.81</v>
-      </c>
-      <c r="H79" s="20">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="11">
-        <f t="shared" ref="L79" si="3">SUM(L77+L78)</f>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28">
+        <f>SUM(F78+F79)</f>
+        <v>82287.443093099995</v>
+      </c>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28">
+        <f>(F78*I78+F79*I79)/(F78+F79)</f>
+        <v>110.89616873203074</v>
+      </c>
+      <c r="J80" s="28">
+        <f>(F78*J78+F79*J79)/(F78+F79)</f>
+        <v>11.186545760971127</v>
+      </c>
+      <c r="K80" s="16">
+        <f t="shared" ref="K80" si="15">SUM(K78+K79)</f>
         <v>1066</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="A72:K72"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="A50:K50"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3313,46 +3889,46 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="28"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3382,17 +3958,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3500,17 +4076,17 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4342,17 +4918,17 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -4428,17 +5004,17 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -4774,17 +5350,17 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -4860,17 +5436,17 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -4946,17 +5522,17 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -5148,62 +5724,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="G1" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="54"/>
+      <c r="I1" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="54"/>
+      <c r="K1" s="45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -5215,1774 +5801,2321 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="C11" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="56">
+        <v>323.54000000000002</v>
+      </c>
       <c r="D13" s="9">
         <v>32.4</v>
       </c>
       <c r="E13" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>40.200000000000003</v>
       </c>
-      <c r="G13" s="10">
-        <v>80.5</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.81</v>
-      </c>
-      <c r="I13" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="62">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="H13" s="62">
+        <v>1.02</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="56">
+        <v>323.54000000000002</v>
+      </c>
       <c r="D14" s="9">
         <v>40</v>
       </c>
       <c r="E14" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>49.6</v>
       </c>
-      <c r="G14" s="10">
-        <v>80.5</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1.04</v>
-      </c>
-      <c r="I14" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="62">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="H14" s="62">
+        <v>1.02</v>
+      </c>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="56">
+        <v>538.20000000000005</v>
+      </c>
       <c r="D15" s="9">
         <v>20</v>
       </c>
       <c r="E15" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>34.1</v>
       </c>
-      <c r="G15" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I15" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="64">
+        <v>64</v>
+      </c>
+      <c r="H15" s="56">
+        <v>0.85</v>
+      </c>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="63">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="56">
+        <v>538.20000000000005</v>
+      </c>
       <c r="D16" s="9">
         <v>20</v>
       </c>
       <c r="E16" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>34.1</v>
       </c>
-      <c r="G16" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I16" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="64">
+        <v>64</v>
+      </c>
+      <c r="H16" s="56">
+        <v>0.85</v>
+      </c>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="63">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="56">
+        <v>557.98</v>
+      </c>
       <c r="D17" s="9">
         <v>32.4</v>
       </c>
       <c r="E17" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>40.200000000000003</v>
       </c>
-      <c r="G17" s="10">
-        <v>80.5</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0.81</v>
-      </c>
-      <c r="I17" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="56">
+        <v>89.5</v>
+      </c>
+      <c r="H17" s="56">
+        <v>0.86</v>
+      </c>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="63">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="56">
+        <v>557.98</v>
+      </c>
       <c r="D18" s="9">
         <v>40</v>
       </c>
       <c r="E18" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>49.6</v>
       </c>
-      <c r="G18" s="10">
-        <v>80.5</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1.04</v>
-      </c>
-      <c r="I18" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="56">
+        <v>89.5</v>
+      </c>
+      <c r="H18" s="56">
+        <v>0.86</v>
+      </c>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="63">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="56">
+        <v>560.72</v>
+      </c>
       <c r="D19" s="9">
         <v>20</v>
       </c>
       <c r="E19" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>34.1</v>
       </c>
-      <c r="G19" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I19" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="56">
+        <v>115</v>
+      </c>
+      <c r="H19" s="56">
+        <v>0.86</v>
+      </c>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="63">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="56">
+        <v>560.72</v>
+      </c>
       <c r="D20" s="9">
         <v>20</v>
       </c>
       <c r="E20" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>34.1</v>
       </c>
-      <c r="G20" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I20" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="56">
+        <v>115</v>
+      </c>
+      <c r="H20" s="56">
+        <v>0.86</v>
+      </c>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="63">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="56">
+        <v>560.57000000000005</v>
+      </c>
       <c r="D21" s="9">
         <v>32.4</v>
       </c>
       <c r="E21" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>40.200000000000003</v>
       </c>
-      <c r="G21" s="10">
-        <v>80.5</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.81</v>
-      </c>
-      <c r="I21" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="56">
+        <v>140.5</v>
+      </c>
+      <c r="H21" s="56">
+        <v>0.86</v>
+      </c>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="63">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="56">
+        <v>560.57000000000005</v>
+      </c>
       <c r="D22" s="9">
         <v>40</v>
       </c>
       <c r="E22" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>49.6</v>
       </c>
-      <c r="G22" s="10">
-        <v>80.5</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1.04</v>
-      </c>
-      <c r="I22" s="10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="56">
+        <v>140.5</v>
+      </c>
+      <c r="H22" s="56">
+        <v>0.86</v>
+      </c>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="63">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="56">
+        <v>560.57000000000005</v>
+      </c>
       <c r="D23" s="9">
         <v>20</v>
       </c>
       <c r="E23" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>34.1</v>
       </c>
-      <c r="G23" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I23" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="56">
+        <v>166</v>
+      </c>
+      <c r="H23" s="56">
+        <v>0.86</v>
+      </c>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="63">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="56">
+        <v>560.57000000000005</v>
+      </c>
       <c r="D24" s="9">
         <v>20</v>
       </c>
       <c r="E24" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>34.1</v>
       </c>
-      <c r="G24" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I24" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="56">
+        <v>166</v>
+      </c>
+      <c r="H24" s="56">
+        <v>0.86</v>
+      </c>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="63">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="56">
+        <v>428.97</v>
+      </c>
       <c r="D25" s="9">
         <v>20</v>
       </c>
       <c r="E25" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>34.1</v>
       </c>
-      <c r="G25" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I25" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="56">
+        <v>196.7</v>
+      </c>
+      <c r="H25" s="56">
+        <v>0.95</v>
+      </c>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="63">
+        <v>15619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="56">
+        <v>428.97</v>
+      </c>
       <c r="D26" s="9">
         <v>20</v>
       </c>
       <c r="E26" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>34.1</v>
       </c>
-      <c r="G26" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I26" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="56">
+        <v>196.7</v>
+      </c>
+      <c r="H26" s="56">
+        <v>0.95</v>
+      </c>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="63">
+        <v>15619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="56">
+        <v>330.03</v>
+      </c>
       <c r="D27" s="9">
         <v>32.4</v>
       </c>
       <c r="E27" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>40.200000000000003</v>
       </c>
-      <c r="G27" s="10">
-        <v>80.5</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0.81</v>
-      </c>
-      <c r="I27" s="10">
+      <c r="G27" s="56">
+        <v>192.89</v>
+      </c>
+      <c r="H27" s="56">
+        <v>9.73</v>
+      </c>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="9">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="56">
+        <v>330.03</v>
+      </c>
       <c r="D28" s="9">
         <v>40</v>
       </c>
       <c r="E28" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>49.6</v>
       </c>
-      <c r="G28" s="10">
-        <v>80.5</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1.04</v>
-      </c>
-      <c r="I28" s="10">
+      <c r="G28" s="56">
+        <v>192.89</v>
+      </c>
+      <c r="H28" s="56">
+        <v>9.73</v>
+      </c>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="9">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="56">
+        <v>351.96</v>
+      </c>
       <c r="D29" s="9">
         <v>20</v>
       </c>
       <c r="E29" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>34.1</v>
       </c>
-      <c r="G29" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I29" s="10">
+      <c r="G29" s="56">
+        <v>166.42</v>
+      </c>
+      <c r="H29" s="56">
+        <v>9.73</v>
+      </c>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="56">
+        <v>351.96</v>
+      </c>
       <c r="D30" s="9">
         <v>20</v>
       </c>
       <c r="E30" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>34.1</v>
       </c>
-      <c r="G30" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I30" s="10">
+      <c r="G30" s="56">
+        <v>166.42</v>
+      </c>
+      <c r="H30" s="56">
+        <v>9.73</v>
+      </c>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="56">
+        <v>351.96</v>
+      </c>
       <c r="D31" s="9">
         <v>32.4</v>
       </c>
       <c r="E31" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>40.200000000000003</v>
       </c>
-      <c r="G31" s="10">
-        <v>80.5</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0.81</v>
-      </c>
-      <c r="I31" s="10">
+      <c r="G31" s="56">
+        <v>140.91999999999999</v>
+      </c>
+      <c r="H31" s="56">
+        <v>9.73</v>
+      </c>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="9">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="56">
+        <v>351.96</v>
+      </c>
       <c r="D32" s="9">
         <v>40</v>
       </c>
       <c r="E32" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>49.6</v>
       </c>
-      <c r="G32" s="10">
-        <v>80.5</v>
-      </c>
-      <c r="H32" s="10">
-        <v>1.04</v>
-      </c>
-      <c r="I32" s="10">
+      <c r="G32" s="56">
+        <v>140.91999999999999</v>
+      </c>
+      <c r="H32" s="56">
+        <v>9.73</v>
+      </c>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="9">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="56">
+        <v>351.96</v>
+      </c>
       <c r="D33" s="9">
         <v>20</v>
       </c>
       <c r="E33" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>34.1</v>
       </c>
-      <c r="G33" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I33" s="10">
+      <c r="G33" s="56">
+        <v>115.42</v>
+      </c>
+      <c r="H33" s="56">
+        <v>9.73</v>
+      </c>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="56">
+        <v>351.96</v>
+      </c>
       <c r="D34" s="9">
         <v>20</v>
       </c>
       <c r="E34" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>34.1</v>
       </c>
-      <c r="G34" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I34" s="10">
+      <c r="G34" s="56">
+        <v>115.42</v>
+      </c>
+      <c r="H34" s="56">
+        <v>9.73</v>
+      </c>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="56">
+        <v>351.96</v>
+      </c>
       <c r="D35" s="9">
         <v>32.4</v>
       </c>
       <c r="E35" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>40.200000000000003</v>
       </c>
-      <c r="G35" s="10">
-        <v>80.5</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0.81</v>
-      </c>
-      <c r="I35" s="10">
+      <c r="G35" s="56">
+        <v>89.92</v>
+      </c>
+      <c r="H35" s="56">
+        <v>9.73</v>
+      </c>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="9">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="56">
+        <v>351.96</v>
+      </c>
       <c r="D36" s="9">
         <v>40</v>
       </c>
       <c r="E36" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>49.6</v>
       </c>
-      <c r="G36" s="10">
-        <v>80.5</v>
-      </c>
-      <c r="H36" s="10">
-        <v>1.04</v>
-      </c>
-      <c r="I36" s="10">
+      <c r="G36" s="56">
+        <v>89.92</v>
+      </c>
+      <c r="H36" s="56">
+        <v>9.73</v>
+      </c>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="9">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="56">
+        <v>351.96</v>
+      </c>
       <c r="D37" s="9">
         <v>20</v>
       </c>
       <c r="E37" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>34.1</v>
       </c>
-      <c r="G37" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I37" s="10">
+      <c r="G37" s="56">
+        <v>64.42</v>
+      </c>
+      <c r="H37" s="56">
+        <v>9.73</v>
+      </c>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="56">
+        <v>351.96</v>
+      </c>
       <c r="D38" s="9">
         <v>20</v>
       </c>
       <c r="E38" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>34.1</v>
       </c>
-      <c r="G38" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I38" s="10">
+      <c r="G38" s="56">
+        <v>64.42</v>
+      </c>
+      <c r="H38" s="56">
+        <v>9.73</v>
+      </c>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="56">
+        <v>347.48</v>
+      </c>
       <c r="D39" s="9">
         <v>20</v>
       </c>
       <c r="E39" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>34.1</v>
       </c>
-      <c r="G39" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I39" s="10">
+      <c r="G39" s="56">
+        <v>40.22</v>
+      </c>
+      <c r="H39" s="56">
+        <v>13.42</v>
+      </c>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="56">
+        <v>347.48</v>
+      </c>
       <c r="D40" s="9">
         <v>20</v>
       </c>
       <c r="E40" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>34.1</v>
       </c>
-      <c r="G40" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I40" s="10">
+      <c r="G40" s="56">
+        <v>40.22</v>
+      </c>
+      <c r="H40" s="56">
+        <v>13.42</v>
+      </c>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="56">
+        <v>682.74</v>
+      </c>
       <c r="D41" s="9">
         <v>20</v>
       </c>
       <c r="E41" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <v>34.1</v>
       </c>
-      <c r="G41" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H41" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I41" s="10">
+      <c r="G41" s="56">
+        <v>191.19</v>
+      </c>
+      <c r="H41" s="56">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="56">
+        <v>682.82</v>
+      </c>
       <c r="D42" s="9">
         <v>20</v>
       </c>
       <c r="E42" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>34.1</v>
       </c>
-      <c r="G42" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="H42" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="I42" s="10">
+      <c r="G42" s="56">
+        <v>191.19</v>
+      </c>
+      <c r="H42" s="56">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="11">
         <f>SUM(F13:F42)</f>
         <v>1152.6000000000001</v>
       </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="11">
-        <f>SUM(I13:I42)</f>
-        <v>2808</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="11">
+        <f>SUM(K13:K42)</f>
+        <v>243996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="1"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="56">
+        <v>22.61</v>
+      </c>
       <c r="D45" s="1">
         <v>100</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
-      <c r="F45" s="9">
-        <v>100.5</v>
-      </c>
-      <c r="G45" s="9">
-        <v>9.11</v>
-      </c>
-      <c r="H45" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="I45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="60">
+        <f>C45*D45*E45/100</f>
+        <v>22.61</v>
+      </c>
+      <c r="G45" s="56">
+        <v>7.51</v>
+      </c>
+      <c r="H45" s="56">
+        <v>14.51</v>
+      </c>
+      <c r="I45" s="56">
+        <v>7.51</v>
+      </c>
+      <c r="J45" s="56">
+        <v>14.51</v>
+      </c>
+      <c r="K45" s="65"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="56">
+        <v>209.61</v>
+      </c>
       <c r="D46" s="1">
         <v>100</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="9">
-        <v>100.5</v>
-      </c>
-      <c r="G46" s="9">
-        <v>9.11</v>
-      </c>
-      <c r="H46" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="F46" s="60">
+        <f>C46*D46*E46/100</f>
+        <v>209.61</v>
+      </c>
+      <c r="G46" s="56">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H46" s="56">
+        <v>16.86</v>
+      </c>
+      <c r="I46" s="56">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J46" s="56">
+        <v>16.86</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="56">
+        <v>209.61</v>
+      </c>
+      <c r="D47" s="1">
+        <v>100</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="60">
+        <f>C47*D47*E47/100</f>
+        <v>209.61</v>
+      </c>
+      <c r="G47" s="56">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H47" s="56">
+        <v>16.86</v>
+      </c>
+      <c r="I47" s="56">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J47" s="56">
+        <v>16.86</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="11">
-        <f>SUM(F45:F46)</f>
-        <v>201</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="11">
-        <f t="shared" ref="I47" si="0">SUM(I45:I46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="68">
+        <f>SUM(F45:F47)</f>
+        <v>441.83000000000004</v>
+      </c>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="11">
+        <f t="shared" ref="K48" si="0">SUM(K46:K47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1">
-        <v>98</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="F49" s="10">
-        <v>14.4</v>
-      </c>
-      <c r="G49" s="10">
-        <v>39.549999999999997</v>
-      </c>
-      <c r="H49" s="10">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="I49" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="56">
+        <v>65</v>
+      </c>
       <c r="D50" s="1">
         <v>98</v>
       </c>
       <c r="E50" s="1">
         <v>0.85</v>
       </c>
-      <c r="F50" s="10">
-        <v>11.9</v>
-      </c>
-      <c r="G50" s="10">
-        <v>39.549999999999997</v>
-      </c>
-      <c r="H50" s="10">
-        <v>2.63</v>
-      </c>
-      <c r="I50" s="10">
+      <c r="F50" s="69">
+        <f>C50*D50*E50/100</f>
+        <v>54.145000000000003</v>
+      </c>
+      <c r="G50" s="70">
+        <v>25.37</v>
+      </c>
+      <c r="H50" s="70">
+        <v>3.86</v>
+      </c>
+      <c r="I50" s="70">
+        <v>25.37</v>
+      </c>
+      <c r="J50" s="70">
+        <v>3.86</v>
+      </c>
+      <c r="K50" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>81</v>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="56">
+        <v>65</v>
+      </c>
+      <c r="D51" s="1">
+        <v>98</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F51" s="69">
+        <f t="shared" ref="F51:F61" si="1">C51*D51*E51/100</f>
+        <v>54.145000000000003</v>
+      </c>
+      <c r="G51" s="70">
+        <v>25.37</v>
+      </c>
+      <c r="H51" s="70">
+        <v>3.86</v>
+      </c>
+      <c r="I51" s="70">
+        <v>25.37</v>
+      </c>
+      <c r="J51" s="70">
+        <v>3.86</v>
+      </c>
+      <c r="K51" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="60" t="s">
+        <v>122</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>81</v>
+      <c r="C52" s="62">
+        <v>30</v>
+      </c>
+      <c r="D52" s="13">
+        <v>98</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="F52" s="69">
+        <f t="shared" si="1"/>
+        <v>26.166</v>
+      </c>
+      <c r="G52" s="70">
+        <v>20.74</v>
+      </c>
+      <c r="H52" s="70">
+        <v>16.96</v>
+      </c>
+      <c r="I52" s="70">
+        <v>20.74</v>
+      </c>
+      <c r="J52" s="70">
+        <v>16.96</v>
+      </c>
+      <c r="K52" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="60" t="s">
+        <v>123</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="62">
+        <v>30</v>
+      </c>
+      <c r="D53" s="13">
+        <v>98</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="F53" s="69">
+        <f t="shared" si="1"/>
+        <v>26.166</v>
+      </c>
+      <c r="G53" s="70">
+        <v>24.69</v>
+      </c>
+      <c r="H53" s="70">
+        <v>16.96</v>
+      </c>
+      <c r="I53" s="70">
+        <v>24.69</v>
+      </c>
+      <c r="J53" s="70">
+        <v>16.96</v>
+      </c>
+      <c r="K53" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="12"/>
+      <c r="C54" s="56">
+        <v>1040.9100000000001</v>
+      </c>
       <c r="D54" s="1">
         <v>98</v>
       </c>
       <c r="E54" s="1">
         <v>0.89</v>
       </c>
-      <c r="F54" s="10">
-        <v>74.8</v>
-      </c>
-      <c r="G54" s="10">
-        <v>59.15</v>
-      </c>
-      <c r="H54" s="10">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="I54" s="10">
+      <c r="F54" s="69">
+        <f t="shared" si="1"/>
+        <v>907.88170200000013</v>
+      </c>
+      <c r="G54" s="70">
+        <v>154</v>
+      </c>
+      <c r="H54" s="70">
+        <v>18.02</v>
+      </c>
+      <c r="I54" s="70">
+        <v>154</v>
+      </c>
+      <c r="J54" s="70">
+        <v>18.02</v>
+      </c>
+      <c r="K54" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="12"/>
+      <c r="C55" s="70">
+        <v>1040.9100000000001</v>
+      </c>
       <c r="D55" s="1">
         <v>98</v>
       </c>
       <c r="E55" s="1">
         <v>0.89</v>
       </c>
-      <c r="F55" s="10">
-        <v>74.8</v>
-      </c>
-      <c r="G55" s="10">
-        <v>59.15</v>
-      </c>
-      <c r="H55" s="10">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="I55" s="10">
+      <c r="F55" s="69">
+        <f t="shared" si="1"/>
+        <v>907.88170200000013</v>
+      </c>
+      <c r="G55" s="70">
+        <v>154</v>
+      </c>
+      <c r="H55" s="70">
+        <v>18.02</v>
+      </c>
+      <c r="I55" s="70">
+        <v>154</v>
+      </c>
+      <c r="J55" s="70">
+        <v>18.02</v>
+      </c>
+      <c r="K55" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="56">
+        <v>1041.9100000000001</v>
+      </c>
       <c r="D56" s="1">
         <v>98</v>
       </c>
       <c r="E56" s="1">
         <v>0.89</v>
       </c>
-      <c r="F56" s="10">
-        <v>156.4</v>
-      </c>
-      <c r="G56" s="10">
-        <v>46.77</v>
-      </c>
-      <c r="H56" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="I56" s="10">
+      <c r="F56" s="69">
+        <f t="shared" si="1"/>
+        <v>908.75390200000004</v>
+      </c>
+      <c r="G56" s="70">
+        <v>102.25</v>
+      </c>
+      <c r="H56" s="70">
+        <v>18.02</v>
+      </c>
+      <c r="I56" s="70">
+        <v>102.25</v>
+      </c>
+      <c r="J56" s="70">
+        <v>18.02</v>
+      </c>
+      <c r="K56" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="C57" s="56">
+        <v>1041.9100000000001</v>
+      </c>
       <c r="D57" s="1">
         <v>98</v>
       </c>
       <c r="E57" s="1">
         <v>0.89</v>
       </c>
-      <c r="F57" s="10">
-        <v>136.6</v>
-      </c>
-      <c r="G57" s="10">
-        <v>47.48</v>
-      </c>
-      <c r="H57" s="10">
-        <v>2.12</v>
-      </c>
-      <c r="I57" s="10">
+      <c r="F57" s="69">
+        <f t="shared" si="1"/>
+        <v>908.75390200000004</v>
+      </c>
+      <c r="G57" s="70">
+        <v>102.25</v>
+      </c>
+      <c r="H57" s="70">
+        <v>18.02</v>
+      </c>
+      <c r="I57" s="70">
+        <v>102.25</v>
+      </c>
+      <c r="J57" s="70">
+        <v>18.02</v>
+      </c>
+      <c r="K57" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="70">
+        <v>976.75</v>
+      </c>
       <c r="D58" s="1">
         <v>98</v>
       </c>
       <c r="E58" s="1">
         <v>0.89</v>
       </c>
-      <c r="F58" s="10">
-        <v>53.4</v>
-      </c>
-      <c r="G58" s="10">
-        <v>22.75</v>
-      </c>
-      <c r="H58" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="I58" s="10">
+      <c r="F58" s="69">
+        <f t="shared" si="1"/>
+        <v>851.92134999999996</v>
+      </c>
+      <c r="G58" s="70">
+        <v>52.03</v>
+      </c>
+      <c r="H58" s="70">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="I58" s="70">
+        <v>52.03</v>
+      </c>
+      <c r="J58" s="70">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="K58" s="9">
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="70">
+        <v>976.75</v>
+      </c>
       <c r="D59" s="1">
         <v>98</v>
       </c>
       <c r="E59" s="1">
         <v>0.89</v>
       </c>
-      <c r="F59" s="10">
-        <v>53.4</v>
-      </c>
-      <c r="G59" s="10">
-        <v>22.75</v>
-      </c>
-      <c r="H59" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="I59" s="10">
+      <c r="F59" s="69">
+        <f t="shared" si="1"/>
+        <v>851.92134999999996</v>
+      </c>
+      <c r="G59" s="70">
+        <v>52.03</v>
+      </c>
+      <c r="H59" s="70">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="I59" s="70">
+        <v>52.03</v>
+      </c>
+      <c r="J59" s="70">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="K59" s="9">
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="56">
+        <v>332.56</v>
+      </c>
       <c r="D60" s="1">
         <v>98</v>
       </c>
       <c r="E60" s="1">
         <v>0.89</v>
       </c>
-      <c r="F60" s="10">
-        <v>53.4</v>
-      </c>
-      <c r="G60" s="10">
-        <v>22.75</v>
-      </c>
-      <c r="H60" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="I60" s="10">
+      <c r="F60" s="69">
+        <f t="shared" si="1"/>
+        <v>290.058832</v>
+      </c>
+      <c r="G60" s="70">
+        <v>22.66</v>
+      </c>
+      <c r="H60" s="70">
+        <v>14.47</v>
+      </c>
+      <c r="I60" s="70">
+        <v>22.66</v>
+      </c>
+      <c r="J60" s="70">
+        <v>14.47</v>
+      </c>
+      <c r="K60" s="9">
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="56">
+        <v>332.56</v>
+      </c>
       <c r="D61" s="1">
         <v>98</v>
       </c>
       <c r="E61" s="1">
         <v>0.89</v>
       </c>
-      <c r="F61" s="10">
-        <v>53.4</v>
-      </c>
-      <c r="G61" s="10">
-        <v>22.75</v>
-      </c>
-      <c r="H61" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="I61" s="10">
+      <c r="F61" s="69">
+        <f t="shared" si="1"/>
+        <v>290.058832</v>
+      </c>
+      <c r="G61" s="70">
+        <v>22.66</v>
+      </c>
+      <c r="H61" s="70">
+        <v>14.47</v>
+      </c>
+      <c r="I61" s="70">
+        <v>22.66</v>
+      </c>
+      <c r="J61" s="70">
+        <v>14.47</v>
+      </c>
+      <c r="K61" s="9">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="11">
-        <f>SUM(F49:F61)</f>
-        <v>682.49999999999989</v>
-      </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="11">
-        <f>SUM(I49:I61)</f>
-        <v>810</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="F62" s="71">
+        <f>SUM(F50:F61)</f>
+        <v>6077.8535719999991</v>
+      </c>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="11">
+        <f>SUM(K50:K61)</f>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="48"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="56">
+        <v>15.79</v>
+      </c>
       <c r="D64" s="1">
         <v>50</v>
       </c>
       <c r="E64" s="1">
         <v>0.9</v>
       </c>
-      <c r="F64" s="10">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G64" s="10">
-        <v>32.520000000000003</v>
-      </c>
-      <c r="H64" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="I64" s="10">
+      <c r="F64" s="69">
+        <f t="shared" ref="F64:F65" si="2">C64*D64*E64/100</f>
+        <v>7.105500000000001</v>
+      </c>
+      <c r="G64" s="56">
+        <v>24.83</v>
+      </c>
+      <c r="H64" s="56">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I64" s="56">
+        <v>24.83</v>
+      </c>
+      <c r="J64" s="72">
+        <f>(H64+0.632)/2</f>
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="K64" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="56">
+        <v>16.920000000000002</v>
+      </c>
       <c r="D65" s="1">
         <v>50</v>
       </c>
       <c r="E65" s="1">
         <v>0.9</v>
       </c>
-      <c r="F65" s="10">
-        <v>7.2</v>
-      </c>
-      <c r="G65" s="10">
-        <v>30.8</v>
-      </c>
-      <c r="H65" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="I65" s="10">
+      <c r="F65" s="69">
+        <f t="shared" si="2"/>
+        <v>7.6140000000000008</v>
+      </c>
+      <c r="G65" s="56">
+        <v>20.27</v>
+      </c>
+      <c r="H65" s="64">
+        <f>(1619+632)/2/1000</f>
+        <v>1.1254999999999999</v>
+      </c>
+      <c r="I65" s="56">
+        <v>20.27</v>
+      </c>
+      <c r="J65" s="64">
+        <f>(H65+632/1000)/2</f>
+        <v>0.87874999999999992</v>
+      </c>
+      <c r="K65" s="9">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="11">
+      <c r="F66" s="68">
         <f>SUM(F64:F65)</f>
-        <v>15.5</v>
-      </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="11">
-        <f t="shared" ref="I66" si="1">SUM(I64:I65)</f>
+        <v>14.719500000000002</v>
+      </c>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="11">
+        <f t="shared" ref="K66" si="3">SUM(K64:K65)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="56">
+        <v>26.9</v>
+      </c>
       <c r="D68" s="1">
         <v>50</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
-      <c r="F68" s="10">
-        <v>7.7</v>
-      </c>
-      <c r="G68" s="10">
-        <v>35</v>
-      </c>
-      <c r="H68" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="I68" s="10">
+      <c r="F68" s="69">
+        <f t="shared" ref="F68:F69" si="4">C68*D68*E68/100</f>
+        <v>13.45</v>
+      </c>
+      <c r="G68" s="56">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H68" s="56">
+        <v>0.91</v>
+      </c>
+      <c r="I68" s="56">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J68" s="72">
+        <f>H68/2</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K68" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="56">
+        <v>15.79</v>
+      </c>
       <c r="D69" s="1">
         <v>50</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
       </c>
-      <c r="F69" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="G69" s="10">
-        <v>30.8</v>
-      </c>
-      <c r="H69" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="I69" s="10">
+      <c r="F69" s="69">
+        <f t="shared" si="4"/>
+        <v>7.8949999999999996</v>
+      </c>
+      <c r="G69" s="56">
+        <v>24.83</v>
+      </c>
+      <c r="H69" s="56">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I69" s="56">
+        <v>24.83</v>
+      </c>
+      <c r="J69" s="72">
+        <f>(H69+0.632)/2</f>
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="K69" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="11">
+      <c r="F70" s="68">
         <f>SUM(F68:F69)</f>
-        <v>11.5</v>
-      </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="11">
-        <f>SUM(I68:I69)</f>
+        <v>21.344999999999999</v>
+      </c>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="11">
+        <f>SUM(K68:K69)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="61"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="10">
-        <v>8.5</v>
-      </c>
-      <c r="G72" s="10">
-        <v>48.5</v>
-      </c>
-      <c r="H72" s="10">
-        <v>7</v>
-      </c>
-      <c r="I72" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="57">
+        <v>6.76</v>
+      </c>
+      <c r="G72" s="57">
+        <v>13.05</v>
+      </c>
+      <c r="H72" s="57">
+        <v>23.14</v>
+      </c>
+      <c r="I72" s="57">
+        <v>13.05</v>
+      </c>
+      <c r="J72" s="57">
+        <v>23</v>
+      </c>
+      <c r="K72" s="60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="10">
-        <v>100</v>
-      </c>
-      <c r="G73" s="10">
-        <v>77</v>
-      </c>
-      <c r="H73" s="10">
-        <v>2.7</v>
-      </c>
-      <c r="I73" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="57">
+        <v>93.27</v>
+      </c>
+      <c r="G73" s="57">
+        <v>18.193999999999999</v>
+      </c>
+      <c r="H73" s="57">
+        <v>23.14</v>
+      </c>
+      <c r="I73" s="57">
+        <v>18.193999999999999</v>
+      </c>
+      <c r="J73" s="57">
+        <v>23</v>
+      </c>
+      <c r="K73" s="60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="10">
-        <v>2</v>
-      </c>
-      <c r="G74" s="10">
-        <v>34.5</v>
-      </c>
-      <c r="H74" s="10">
-        <v>8.9</v>
-      </c>
-      <c r="I74" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="C74" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="57">
+        <v>1.26</v>
+      </c>
+      <c r="G74" s="57">
+        <v>16.25</v>
+      </c>
+      <c r="H74" s="57">
+        <v>26.2</v>
+      </c>
+      <c r="I74" s="57">
+        <v>16.25</v>
+      </c>
+      <c r="J74" s="57">
+        <v>26</v>
+      </c>
+      <c r="K74" s="60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="11">
+      <c r="F75" s="68">
         <f>SUM(F72:F74)</f>
-        <v>110.5</v>
-      </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="11">
-        <f t="shared" ref="I75" si="2">SUM(I72:I74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+        <v>101.29</v>
+      </c>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="65"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="11"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="11"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="11"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="11">
+      <c r="B77" s="65"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="75">
         <v>3478.4</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="75">
         <v>39.65</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="75">
         <v>6.01</v>
       </c>
-      <c r="I77" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="11">
+      <c r="B78" s="65"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="75">
         <v>1307.0999999999999</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="75">
         <v>40.24</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78" s="75">
         <v>1.92</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="75"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="75">
         <v>1066</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="11">
+      <c r="B79" s="65"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="75">
         <f>SUM(F77+F78)</f>
         <v>4785.5</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79" s="75">
         <v>39.81</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H79" s="75">
         <v>4.8899999999999997</v>
       </c>
-      <c r="I79" s="11">
-        <f t="shared" ref="I79" si="3">SUM(I77+I78)</f>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75">
+        <f t="shared" ref="K79" si="5">SUM(K77+K78)</f>
         <v>1066</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="A71:I71"/>
+  <mergeCells count="16">
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A49:K49"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A48:I48"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7001,46 +8134,46 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="28"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -7070,17 +8203,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -7188,17 +8321,17 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -8030,17 +9163,17 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -8116,17 +9249,17 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -8462,17 +9595,17 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -8548,17 +9681,17 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -8634,17 +9767,17 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
